--- a/Data/UDEP_1991-2019.xlsx
+++ b/Data/UDEP_1991-2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\Tesis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B162687F-6D33-4178-A4F8-46EE45A05971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDE253D-C42F-49F4-8D53-2FA7838E3A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1A1A1C07-F415-4062-AF83-746E68B08CEC}"/>
   </bookViews>
@@ -8109,8 +8109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1584AD87-B3AE-4A30-BA44-91C91E8959D2}">
   <dimension ref="A3:E603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A584" workbookViewId="0">
-      <selection activeCell="G597" sqref="G597"/>
+    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="E518" sqref="E518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14418,6 +14418,9 @@
       <c r="C523" s="10">
         <v>2.6</v>
       </c>
+      <c r="D523" s="30">
+        <v>34.6</v>
+      </c>
       <c r="E523" s="30">
         <v>19.5</v>
       </c>
@@ -14432,6 +14435,9 @@
       <c r="C524" s="10">
         <v>0.6</v>
       </c>
+      <c r="D524" s="30">
+        <v>33.200000000000003</v>
+      </c>
       <c r="E524" s="30">
         <v>21.2</v>
       </c>
@@ -14446,6 +14452,9 @@
       <c r="C525" s="11">
         <v>0</v>
       </c>
+      <c r="D525" s="30">
+        <v>33</v>
+      </c>
       <c r="E525" s="30">
         <v>19.100000000000001</v>
       </c>
@@ -14460,6 +14469,9 @@
       <c r="C526" s="11">
         <v>0</v>
       </c>
+      <c r="D526" s="30">
+        <v>31</v>
+      </c>
       <c r="E526" s="30">
         <v>15.8</v>
       </c>
@@ -14474,6 +14486,9 @@
       <c r="C527" s="11">
         <v>0</v>
       </c>
+      <c r="D527" s="30">
+        <v>31.9</v>
+      </c>
       <c r="E527" s="30">
         <v>15.7</v>
       </c>
@@ -14488,6 +14503,9 @@
       <c r="C528" s="11">
         <v>0</v>
       </c>
+      <c r="D528" s="30">
+        <v>32.200000000000003</v>
+      </c>
       <c r="E528" s="30">
         <v>16.600000000000001</v>
       </c>
@@ -14502,6 +14520,9 @@
       <c r="C529" s="10">
         <v>1.9</v>
       </c>
+      <c r="D529" s="30">
+        <v>32.4</v>
+      </c>
       <c r="E529" s="30">
         <v>16.600000000000001</v>
       </c>
@@ -14516,6 +14537,9 @@
       <c r="C530" s="11">
         <v>0</v>
       </c>
+      <c r="D530" s="30">
+        <v>32.200000000000003</v>
+      </c>
       <c r="E530" s="30">
         <v>17.600000000000001</v>
       </c>
@@ -14529,6 +14553,9 @@
       </c>
       <c r="C531" s="10">
         <v>1.1000000000000001</v>
+      </c>
+      <c r="D531" s="30">
+        <v>33.4</v>
       </c>
       <c r="E531" s="30">
         <v>18.7</v>

--- a/Data/UDEP_1991-2019.xlsx
+++ b/Data/UDEP_1991-2019.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\Tesis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDE253D-C42F-49F4-8D53-2FA7838E3A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC38DCCF-291F-43D0-A3CE-887D7139F673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1A1A1C07-F415-4062-AF83-746E68B08CEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="AllUDEP" sheetId="2" r:id="rId2"/>
+    <sheet name="u" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Universidad de Piura</t>
   </si>
@@ -176,6 +177,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>temp_med</t>
   </si>
 </sst>
 </file>
@@ -336,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -377,6 +381,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6021,12 +6026,9 @@
             <v>0</v>
           </cell>
         </row>
-        <row r="375">
-          <cell r="AZ375"/>
-        </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
@@ -8107,15 +8109,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1584AD87-B3AE-4A30-BA44-91C91E8959D2}">
-  <dimension ref="A3:E603"/>
+  <dimension ref="A3:G603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="E518" sqref="E518"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F479" sqref="F479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>40</v>
       </c>
@@ -8131,8 +8133,11 @@
       <c r="E3" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1971</v>
       </c>
@@ -8140,7 +8145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1971</v>
       </c>
@@ -8148,7 +8153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1971</v>
       </c>
@@ -8156,7 +8161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1971</v>
       </c>
@@ -8164,7 +8169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1971</v>
       </c>
@@ -8172,7 +8177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1971</v>
       </c>
@@ -8180,7 +8185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1971</v>
       </c>
@@ -8188,7 +8193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1971</v>
       </c>
@@ -8196,7 +8201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1971</v>
       </c>
@@ -8204,7 +8209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1971</v>
       </c>
@@ -8212,7 +8217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1971</v>
       </c>
@@ -8220,7 +8225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1971</v>
       </c>
@@ -8228,7 +8233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1972</v>
       </c>
@@ -10028,7 +10033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1990</v>
       </c>
@@ -10036,7 +10041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1990</v>
       </c>
@@ -10044,7 +10049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1990</v>
       </c>
@@ -10052,7 +10057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1991</v>
       </c>
@@ -10066,8 +10071,16 @@
         <v>33</v>
       </c>
       <c r="E244" s="28"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F244" s="32" t="str">
+        <f>IF(AND(D244&gt;0,E244&gt;0),AVERAGE(D244:E244),"")</f>
+        <v/>
+      </c>
+      <c r="G244" s="32">
+        <f>AVERAGE(D244:E244)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1991</v>
       </c>
@@ -10083,8 +10096,12 @@
       <c r="E245" s="29">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F245" s="32">
+        <f>IF(AND(D245&gt;0,E245&gt;0),AVERAGE(D245:E245),"")</f>
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1991</v>
       </c>
@@ -10100,8 +10117,12 @@
       <c r="E246" s="29">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246" s="32">
+        <f>IF(AND(D246&gt;0,E246&gt;0),AVERAGE(D246:E246),"")</f>
+        <v>28.75</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1991</v>
       </c>
@@ -10117,8 +10138,12 @@
       <c r="E247" s="29">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247" s="32">
+        <f t="shared" ref="F247:F310" si="0">IF(AND(D247&gt;0,E247&gt;0),AVERAGE(D247:E247),"")</f>
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1991</v>
       </c>
@@ -10134,8 +10159,12 @@
       <c r="E248" s="29">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F248" s="32">
+        <f t="shared" si="0"/>
+        <v>25.799999999999997</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1991</v>
       </c>
@@ -10151,8 +10180,12 @@
       <c r="E249" s="29">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F249" s="32">
+        <f t="shared" si="0"/>
+        <v>23.700000000000003</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1991</v>
       </c>
@@ -10168,8 +10201,12 @@
       <c r="E250" s="29">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F250" s="32">
+        <f t="shared" si="0"/>
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1991</v>
       </c>
@@ -10185,8 +10222,12 @@
       <c r="E251" s="29">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F251" s="32">
+        <f t="shared" si="0"/>
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1991</v>
       </c>
@@ -10202,8 +10243,12 @@
       <c r="E252" s="29">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F252" s="32">
+        <f t="shared" si="0"/>
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1991</v>
       </c>
@@ -10219,8 +10264,12 @@
       <c r="E253" s="29">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253" s="32">
+        <f t="shared" si="0"/>
+        <v>23.35</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1991</v>
       </c>
@@ -10236,8 +10285,12 @@
       <c r="E254" s="29">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F254" s="32">
+        <f t="shared" si="0"/>
+        <v>24.15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1991</v>
       </c>
@@ -10253,8 +10306,12 @@
       <c r="E255" s="29">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F255" s="32">
+        <f t="shared" si="0"/>
+        <v>26.200000000000003</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1992</v>
       </c>
@@ -10270,8 +10327,12 @@
       <c r="E256" s="30">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F256" s="32">
+        <f t="shared" si="0"/>
+        <v>28.150000000000002</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1992</v>
       </c>
@@ -10287,8 +10348,12 @@
       <c r="E257" s="30">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F257" s="32">
+        <f t="shared" si="0"/>
+        <v>28.85</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1992</v>
       </c>
@@ -10304,8 +10369,12 @@
       <c r="E258" s="30">
         <v>25.3</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F258" s="32">
+        <f t="shared" si="0"/>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1992</v>
       </c>
@@ -10321,8 +10390,12 @@
       <c r="E259" s="30">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F259" s="32">
+        <f t="shared" si="0"/>
+        <v>28.400000000000002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1992</v>
       </c>
@@ -10338,8 +10411,12 @@
       <c r="E260" s="30">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F260" s="32">
+        <f t="shared" si="0"/>
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1992</v>
       </c>
@@ -10355,8 +10432,12 @@
       <c r="E261" s="30">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261" s="32">
+        <f t="shared" si="0"/>
+        <v>23.85</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1992</v>
       </c>
@@ -10372,8 +10453,12 @@
       <c r="E262" s="30">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262" s="32">
+        <f t="shared" si="0"/>
+        <v>22.049999999999997</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1992</v>
       </c>
@@ -10389,8 +10474,12 @@
       <c r="E263" s="30">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263" s="32">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1992</v>
       </c>
@@ -10406,8 +10495,12 @@
       <c r="E264" s="30">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264" s="32">
+        <f t="shared" si="0"/>
+        <v>23.25</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1992</v>
       </c>
@@ -10423,8 +10516,12 @@
       <c r="E265" s="30">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265" s="32">
+        <f t="shared" si="0"/>
+        <v>23.85</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1992</v>
       </c>
@@ -10440,8 +10537,12 @@
       <c r="E266" s="30">
         <v>19</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F266" s="32">
+        <f t="shared" si="0"/>
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1992</v>
       </c>
@@ -10457,8 +10558,12 @@
       <c r="E267" s="30">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F267" s="32">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1993</v>
       </c>
@@ -10474,8 +10579,12 @@
       <c r="E268" s="30">
         <v>22</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F268" s="32">
+        <f t="shared" si="0"/>
+        <v>27.55</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1993</v>
       </c>
@@ -10491,8 +10600,12 @@
       <c r="E269" s="30">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F269" s="32">
+        <f t="shared" si="0"/>
+        <v>28.15</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1993</v>
       </c>
@@ -10508,8 +10621,12 @@
       <c r="E270" s="30">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F270" s="32">
+        <f t="shared" si="0"/>
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1993</v>
       </c>
@@ -10525,8 +10642,12 @@
       <c r="E271" s="30">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F271" s="32">
+        <f t="shared" si="0"/>
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1993</v>
       </c>
@@ -10542,8 +10663,12 @@
       <c r="E272" s="30">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F272" s="32">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1993</v>
       </c>
@@ -10559,8 +10684,12 @@
       <c r="E273" s="30">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F273" s="32">
+        <f t="shared" si="0"/>
+        <v>24.05</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1993</v>
       </c>
@@ -10576,8 +10705,12 @@
       <c r="E274" s="30">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F274" s="32">
+        <f t="shared" si="0"/>
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1993</v>
       </c>
@@ -10593,8 +10726,12 @@
       <c r="E275" s="30">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F275" s="32">
+        <f t="shared" si="0"/>
+        <v>22.700000000000003</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1993</v>
       </c>
@@ -10610,8 +10747,12 @@
       <c r="E276" s="30">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F276" s="32">
+        <f t="shared" si="0"/>
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1993</v>
       </c>
@@ -10627,8 +10768,12 @@
       <c r="E277" s="30">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F277" s="32">
+        <f t="shared" si="0"/>
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1993</v>
       </c>
@@ -10644,8 +10789,12 @@
       <c r="E278" s="30">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F278" s="32">
+        <f t="shared" si="0"/>
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1993</v>
       </c>
@@ -10661,8 +10810,12 @@
       <c r="E279" s="30">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F279" s="32">
+        <f t="shared" si="0"/>
+        <v>26.299999999999997</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1994</v>
       </c>
@@ -10678,8 +10831,12 @@
       <c r="E280" s="30">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F280" s="32">
+        <f t="shared" si="0"/>
+        <v>27.15</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1994</v>
       </c>
@@ -10695,8 +10852,12 @@
       <c r="E281" s="30">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F281" s="32">
+        <f t="shared" si="0"/>
+        <v>29.05</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1994</v>
       </c>
@@ -10712,8 +10873,12 @@
       <c r="E282" s="30">
         <v>21</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F282" s="32">
+        <f t="shared" si="0"/>
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1994</v>
       </c>
@@ -10729,8 +10894,12 @@
       <c r="E283" s="30">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F283" s="32">
+        <f t="shared" si="0"/>
+        <v>27.200000000000003</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1994</v>
       </c>
@@ -10746,8 +10915,12 @@
       <c r="E284" s="30">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F284" s="32">
+        <f t="shared" si="0"/>
+        <v>25.150000000000002</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1994</v>
       </c>
@@ -10763,8 +10936,12 @@
       <c r="E285" s="30">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F285" s="32">
+        <f t="shared" si="0"/>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1994</v>
       </c>
@@ -10780,8 +10957,12 @@
       <c r="E286" s="30">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286" s="32">
+        <f t="shared" si="0"/>
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1994</v>
       </c>
@@ -10797,8 +10978,12 @@
       <c r="E287" s="30">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F287" s="32">
+        <f t="shared" si="0"/>
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1994</v>
       </c>
@@ -10814,8 +10999,12 @@
       <c r="E288" s="30">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F288" s="32">
+        <f t="shared" si="0"/>
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1994</v>
       </c>
@@ -10831,8 +11020,12 @@
       <c r="E289" s="30">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F289" s="32">
+        <f t="shared" si="0"/>
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1994</v>
       </c>
@@ -10848,8 +11041,12 @@
       <c r="E290" s="30">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290" s="32">
+        <f t="shared" si="0"/>
+        <v>24.85</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1994</v>
       </c>
@@ -10865,8 +11062,12 @@
       <c r="E291" s="30">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291" s="32">
+        <f t="shared" si="0"/>
+        <v>26.900000000000002</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1995</v>
       </c>
@@ -10882,8 +11083,12 @@
       <c r="E292" s="30">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F292" s="32">
+        <f t="shared" si="0"/>
+        <v>28.85</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1995</v>
       </c>
@@ -10899,8 +11104,12 @@
       <c r="E293" s="30">
         <v>22</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293" s="32">
+        <f t="shared" si="0"/>
+        <v>29.15</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1995</v>
       </c>
@@ -10916,8 +11125,12 @@
       <c r="E294" s="30">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F294" s="32">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1995</v>
       </c>
@@ -10933,8 +11146,12 @@
       <c r="E295" s="30">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295" s="32">
+        <f t="shared" si="0"/>
+        <v>27.049999999999997</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1995</v>
       </c>
@@ -10950,8 +11167,12 @@
       <c r="E296" s="30">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F296" s="32">
+        <f t="shared" si="0"/>
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1995</v>
       </c>
@@ -10967,8 +11188,12 @@
       <c r="E297" s="30">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297" s="32">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1995</v>
       </c>
@@ -10984,8 +11209,12 @@
       <c r="E298" s="30">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298" s="32">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1995</v>
       </c>
@@ -11001,8 +11230,12 @@
       <c r="E299" s="30">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F299" s="32">
+        <f t="shared" si="0"/>
+        <v>22.450000000000003</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1995</v>
       </c>
@@ -11018,8 +11251,12 @@
       <c r="E300" s="30">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F300" s="32">
+        <f t="shared" si="0"/>
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1995</v>
       </c>
@@ -11035,8 +11272,12 @@
       <c r="E301" s="30">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F301" s="32">
+        <f t="shared" si="0"/>
+        <v>23.799999999999997</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1995</v>
       </c>
@@ -11052,8 +11293,12 @@
       <c r="E302" s="30">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F302" s="32">
+        <f t="shared" si="0"/>
+        <v>25.450000000000003</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1995</v>
       </c>
@@ -11069,8 +11314,12 @@
       <c r="E303" s="30">
         <v>18</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F303" s="32">
+        <f t="shared" si="0"/>
+        <v>26.05</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1996</v>
       </c>
@@ -11086,8 +11335,12 @@
       <c r="E304" s="30">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F304" s="32">
+        <f t="shared" si="0"/>
+        <v>28.400000000000002</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1996</v>
       </c>
@@ -11103,8 +11356,12 @@
       <c r="E305" s="30">
         <v>23</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F305" s="32">
+        <f t="shared" si="0"/>
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1996</v>
       </c>
@@ -11120,8 +11377,12 @@
       <c r="E306" s="30">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F306" s="32">
+        <f t="shared" si="0"/>
+        <v>29.950000000000003</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1996</v>
       </c>
@@ -11137,8 +11398,12 @@
       <c r="E307" s="30">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F307" s="32">
+        <f t="shared" si="0"/>
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1996</v>
       </c>
@@ -11154,8 +11419,12 @@
       <c r="E308" s="30">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F308" s="32">
+        <f t="shared" si="0"/>
+        <v>25.700000000000003</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1996</v>
       </c>
@@ -11171,8 +11440,12 @@
       <c r="E309" s="30">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F309" s="32">
+        <f t="shared" si="0"/>
+        <v>23.55</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1996</v>
       </c>
@@ -11188,8 +11461,12 @@
       <c r="E310" s="30">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F310" s="32">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1996</v>
       </c>
@@ -11205,8 +11482,12 @@
       <c r="E311" s="30">
         <v>17</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F311" s="32">
+        <f t="shared" ref="F311:F374" si="1">IF(AND(D311&gt;0,E311&gt;0),AVERAGE(D311:E311),"")</f>
+        <v>23.35</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1996</v>
       </c>
@@ -11222,8 +11503,12 @@
       <c r="E312" s="30">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F312" s="32">
+        <f t="shared" si="1"/>
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1996</v>
       </c>
@@ -11239,8 +11524,12 @@
       <c r="E313" s="30">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F313" s="32">
+        <f t="shared" si="1"/>
+        <v>25.05</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1996</v>
       </c>
@@ -11256,8 +11545,12 @@
       <c r="E314" s="30">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F314" s="32">
+        <f t="shared" si="1"/>
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1996</v>
       </c>
@@ -11273,8 +11566,12 @@
       <c r="E315" s="30">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F315" s="32">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1997</v>
       </c>
@@ -11290,8 +11587,12 @@
       <c r="E316" s="30">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F316" s="32">
+        <f t="shared" si="1"/>
+        <v>27.15</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1997</v>
       </c>
@@ -11307,8 +11608,12 @@
       <c r="E317" s="30">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F317" s="32">
+        <f t="shared" si="1"/>
+        <v>28.65</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1997</v>
       </c>
@@ -11324,8 +11629,12 @@
       <c r="E318" s="30">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F318" s="32">
+        <f t="shared" si="1"/>
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1997</v>
       </c>
@@ -11341,8 +11650,12 @@
       <c r="E319" s="30">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F319" s="32">
+        <f t="shared" si="1"/>
+        <v>28.95</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1997</v>
       </c>
@@ -11358,8 +11671,12 @@
       <c r="E320" s="30">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F320" s="32">
+        <f t="shared" si="1"/>
+        <v>28.700000000000003</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1997</v>
       </c>
@@ -11375,8 +11692,12 @@
       <c r="E321" s="30">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F321" s="32">
+        <f t="shared" si="1"/>
+        <v>27.35</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1997</v>
       </c>
@@ -11392,8 +11713,12 @@
       <c r="E322" s="30">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F322" s="32">
+        <f t="shared" si="1"/>
+        <v>26.549999999999997</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1997</v>
       </c>
@@ -11409,8 +11734,12 @@
       <c r="E323" s="30">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F323" s="32">
+        <f t="shared" si="1"/>
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1997</v>
       </c>
@@ -11426,8 +11755,12 @@
       <c r="E324" s="30">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F324" s="32">
+        <f t="shared" si="1"/>
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1997</v>
       </c>
@@ -11443,8 +11776,12 @@
       <c r="E325" s="30">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F325" s="32">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1997</v>
       </c>
@@ -11460,8 +11797,12 @@
       <c r="E326" s="30">
         <v>23.8</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F326" s="32">
+        <f t="shared" si="1"/>
+        <v>28.200000000000003</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1997</v>
       </c>
@@ -11477,8 +11818,12 @@
       <c r="E327" s="30">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F327" s="32">
+        <f t="shared" si="1"/>
+        <v>28.950000000000003</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1998</v>
       </c>
@@ -11494,8 +11839,12 @@
       <c r="E328" s="30">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F328" s="32">
+        <f t="shared" si="1"/>
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1998</v>
       </c>
@@ -11511,8 +11860,12 @@
       <c r="E329" s="30">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F329" s="32">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1998</v>
       </c>
@@ -11528,8 +11881,12 @@
       <c r="E330" s="30">
         <v>24</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F330" s="32">
+        <f t="shared" si="1"/>
+        <v>28.65</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1998</v>
       </c>
@@ -11545,8 +11902,12 @@
       <c r="E331" s="30">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F331" s="32">
+        <f t="shared" si="1"/>
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1998</v>
       </c>
@@ -11562,8 +11923,12 @@
       <c r="E332" s="30">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F332" s="32">
+        <f t="shared" si="1"/>
+        <v>26.15</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1998</v>
       </c>
@@ -11579,8 +11944,12 @@
       <c r="E333" s="30">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F333" s="32">
+        <f t="shared" si="1"/>
+        <v>24.45</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1998</v>
       </c>
@@ -11596,8 +11965,12 @@
       <c r="E334" s="30">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F334" s="32">
+        <f t="shared" si="1"/>
+        <v>23.299999999999997</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1998</v>
       </c>
@@ -11613,8 +11986,12 @@
       <c r="E335" s="30">
         <v>17</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F335" s="32">
+        <f t="shared" si="1"/>
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1998</v>
       </c>
@@ -11630,8 +12007,12 @@
       <c r="E336" s="30">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F336" s="32">
+        <f t="shared" si="1"/>
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1998</v>
       </c>
@@ -11647,8 +12028,12 @@
       <c r="E337" s="30">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F337" s="32">
+        <f t="shared" si="1"/>
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1998</v>
       </c>
@@ -11664,8 +12049,12 @@
       <c r="E338" s="30">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F338" s="32">
+        <f t="shared" si="1"/>
+        <v>23.55</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1998</v>
       </c>
@@ -11681,8 +12070,12 @@
       <c r="E339" s="30">
         <v>18</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F339" s="32">
+        <f t="shared" si="1"/>
+        <v>24.35</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1999</v>
       </c>
@@ -11698,8 +12091,12 @@
       <c r="E340" s="30">
         <v>20.100000000000001</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F340" s="32">
+        <f t="shared" si="1"/>
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1999</v>
       </c>
@@ -11715,8 +12112,12 @@
       <c r="E341" s="30">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F341" s="32">
+        <f t="shared" si="1"/>
+        <v>28.05</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1999</v>
       </c>
@@ -11732,8 +12133,12 @@
       <c r="E342" s="30">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F342" s="32">
+        <f t="shared" si="1"/>
+        <v>28.200000000000003</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1999</v>
       </c>
@@ -11749,8 +12154,12 @@
       <c r="E343" s="30">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F343" s="32">
+        <f t="shared" si="1"/>
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1999</v>
       </c>
@@ -11766,8 +12175,12 @@
       <c r="E344" s="30">
         <v>18</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F344" s="32">
+        <f t="shared" si="1"/>
+        <v>23.35</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1999</v>
       </c>
@@ -11783,8 +12196,12 @@
       <c r="E345" s="30">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F345" s="32">
+        <f t="shared" si="1"/>
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1999</v>
       </c>
@@ -11800,8 +12217,12 @@
       <c r="E346" s="30">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F346" s="32">
+        <f t="shared" si="1"/>
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1999</v>
       </c>
@@ -11817,8 +12238,12 @@
       <c r="E347" s="30">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F347" s="32">
+        <f t="shared" si="1"/>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1999</v>
       </c>
@@ -11834,8 +12259,12 @@
       <c r="E348" s="30">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F348" s="32">
+        <f t="shared" si="1"/>
+        <v>23.35</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1999</v>
       </c>
@@ -11851,8 +12280,12 @@
       <c r="E349" s="30">
         <v>17</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F349" s="32">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1999</v>
       </c>
@@ -11868,8 +12301,12 @@
       <c r="E350" s="30">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F350" s="32">
+        <f t="shared" si="1"/>
+        <v>23.700000000000003</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1999</v>
       </c>
@@ -11885,8 +12322,12 @@
       <c r="E351" s="30">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F351" s="32">
+        <f t="shared" si="1"/>
+        <v>25.05</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>2000</v>
       </c>
@@ -11900,8 +12341,12 @@
         <v>33</v>
       </c>
       <c r="E352" s="30"/>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F352" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>2000</v>
       </c>
@@ -11917,8 +12362,12 @@
       <c r="E353" s="30">
         <v>22.35107142857143</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F353" s="32">
+        <f t="shared" si="1"/>
+        <v>28.108035714285716</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>2000</v>
       </c>
@@ -11934,8 +12383,12 @@
       <c r="E354" s="30">
         <v>22.087499999999999</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F354" s="32">
+        <f t="shared" si="1"/>
+        <v>28.115416666666668</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2000</v>
       </c>
@@ -11951,8 +12404,12 @@
       <c r="E355" s="30">
         <v>21.255517241379309</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F355" s="32">
+        <f t="shared" si="1"/>
+        <v>27.17159195402299</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>2000</v>
       </c>
@@ -11968,8 +12425,12 @@
       <c r="E356" s="30">
         <v>19.295666666666669</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F356" s="32">
+        <f t="shared" si="1"/>
+        <v>24.509333333333331</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>2000</v>
       </c>
@@ -11985,8 +12446,12 @@
       <c r="E357" s="30">
         <v>18.335999999999999</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F357" s="32">
+        <f t="shared" si="1"/>
+        <v>22.318666666666665</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2000</v>
       </c>
@@ -12002,8 +12467,12 @@
       <c r="E358" s="30">
         <v>17.143548387096775</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F358" s="32">
+        <f t="shared" si="1"/>
+        <v>21.355322580645165</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>2000</v>
       </c>
@@ -12019,8 +12488,12 @@
       <c r="E359" s="30">
         <v>17.455161290322579</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F359" s="32">
+        <f t="shared" si="1"/>
+        <v>22.534354838709675</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>2000</v>
       </c>
@@ -12036,8 +12509,12 @@
       <c r="E360" s="30">
         <v>17.182666666666666</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F360" s="32">
+        <f t="shared" si="1"/>
+        <v>22.915500000000002</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>2000</v>
       </c>
@@ -12053,8 +12530,12 @@
       <c r="E361" s="30">
         <v>17.451290322580643</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F361" s="32">
+        <f t="shared" si="1"/>
+        <v>23.502741935483868</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>2000</v>
       </c>
@@ -12070,8 +12551,12 @@
       <c r="E362" s="30">
         <v>16.613</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F362" s="32">
+        <f t="shared" si="1"/>
+        <v>23.131499999999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>2000</v>
       </c>
@@ -12087,8 +12572,12 @@
       <c r="E363" s="30">
         <v>19.873199999999997</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F363" s="32">
+        <f t="shared" si="1"/>
+        <v>25.332113043478259</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>2001</v>
       </c>
@@ -12101,8 +12590,12 @@
       <c r="D364" s="30">
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F364" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>2001</v>
       </c>
@@ -12115,8 +12608,12 @@
       <c r="D365" s="30">
         <v>34.9</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F365" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>2001</v>
       </c>
@@ -12129,8 +12626,12 @@
       <c r="D366" s="30">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F366" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>2001</v>
       </c>
@@ -12143,8 +12644,12 @@
       <c r="D367" s="30">
         <v>33</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F367" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>2001</v>
       </c>
@@ -12157,8 +12662,12 @@
       <c r="D368" s="30">
         <v>30.5</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F368" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>2001</v>
       </c>
@@ -12171,8 +12680,12 @@
       <c r="D369" s="30">
         <v>28.6</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F369" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>2001</v>
       </c>
@@ -12185,8 +12698,12 @@
       <c r="D370" s="30">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F370" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>2001</v>
       </c>
@@ -12199,8 +12716,12 @@
       <c r="D371" s="30">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F371" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>2001</v>
       </c>
@@ -12213,8 +12734,12 @@
       <c r="D372" s="30">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F372" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>2001</v>
       </c>
@@ -12227,8 +12752,12 @@
       <c r="D373" s="30">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F373" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>2001</v>
       </c>
@@ -12241,8 +12770,12 @@
       <c r="D374" s="30">
         <v>29.9</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F374" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2001</v>
       </c>
@@ -12255,8 +12788,12 @@
       <c r="D375" s="30">
         <v>31.8</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F375" s="32" t="str">
+        <f t="shared" ref="F375:F438" si="2">IF(AND(D375&gt;0,E375&gt;0),AVERAGE(D375:E375),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>2002</v>
       </c>
@@ -12269,8 +12806,12 @@
       <c r="D376" s="30">
         <v>34.016129032258064</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F376" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2002</v>
       </c>
@@ -12283,8 +12824,12 @@
       <c r="D377" s="30">
         <v>35.339285714285715</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F377" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2002</v>
       </c>
@@ -12297,8 +12842,12 @@
       <c r="D378" s="30">
         <v>35.200000000000003</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F378" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2002</v>
       </c>
@@ -12311,8 +12860,12 @@
       <c r="D379" s="30">
         <v>33.6</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F379" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2002</v>
       </c>
@@ -12325,8 +12878,12 @@
       <c r="D380" s="30">
         <v>32.532258064516128</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F380" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2002</v>
       </c>
@@ -12339,8 +12896,12 @@
       <c r="D381" s="30">
         <v>29.066666666666666</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F381" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2002</v>
       </c>
@@ -12353,8 +12914,12 @@
       <c r="D382" s="30">
         <v>27.774193548387096</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F382" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2002</v>
       </c>
@@ -12367,8 +12932,12 @@
       <c r="D383" s="30">
         <v>27.612903225806452</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F383" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2002</v>
       </c>
@@ -12381,8 +12950,12 @@
       <c r="D384" s="30">
         <v>28.966666666666665</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F384" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2002</v>
       </c>
@@ -12395,8 +12968,12 @@
       <c r="D385" s="30">
         <v>29.43548387096774</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F385" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2002</v>
       </c>
@@ -12409,8 +12986,12 @@
       <c r="D386" s="30">
         <v>30.65</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F386" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2002</v>
       </c>
@@ -12423,8 +13004,12 @@
       <c r="D387" s="30">
         <v>32.806451612903224</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F387" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2003</v>
       </c>
@@ -12437,8 +13022,12 @@
       <c r="D388" s="30">
         <v>34.096774193548384</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F388" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2003</v>
       </c>
@@ -12451,8 +13040,12 @@
       <c r="D389" s="30">
         <v>35.125</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F389" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2003</v>
       </c>
@@ -12465,8 +13058,12 @@
       <c r="D390" s="30">
         <v>35.1</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F390" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2003</v>
       </c>
@@ -12479,8 +13076,12 @@
       <c r="D391" s="30">
         <v>33.883333333333333</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F391" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>2003</v>
       </c>
@@ -12493,8 +13094,12 @@
       <c r="D392" s="30">
         <v>31.43548387096774</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F392" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2003</v>
       </c>
@@ -12507,8 +13112,12 @@
       <c r="D393" s="30">
         <v>29.583333333333332</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F393" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2003</v>
       </c>
@@ -12521,8 +13130,12 @@
       <c r="D394" s="30">
         <v>28.870967741935484</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F394" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2003</v>
       </c>
@@ -12535,8 +13148,12 @@
       <c r="D395" s="30">
         <v>28.161290322580644</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F395" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2003</v>
       </c>
@@ -12549,8 +13166,12 @@
       <c r="D396" s="30">
         <v>28.2</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F396" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>2003</v>
       </c>
@@ -12563,8 +13184,12 @@
       <c r="D397" s="30">
         <v>30.225806451612904</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F397" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>2003</v>
       </c>
@@ -12577,8 +13202,12 @@
       <c r="D398" s="30">
         <v>30.116666666666667</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F398" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2003</v>
       </c>
@@ -12591,8 +13220,12 @@
       <c r="D399" s="30">
         <v>32.193548387096776</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F399" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>2004</v>
       </c>
@@ -12605,8 +13238,12 @@
       <c r="D400" s="30">
         <v>34.435483870967744</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F400" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>2004</v>
       </c>
@@ -12619,8 +13256,12 @@
       <c r="D401" s="30">
         <v>35.96551724137931</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F401" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>2004</v>
       </c>
@@ -12633,8 +13274,12 @@
       <c r="D402" s="30">
         <v>36.799999999999997</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F402" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2004</v>
       </c>
@@ -12647,8 +13292,12 @@
       <c r="D403" s="30">
         <v>33.983333333333334</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F403" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2004</v>
       </c>
@@ -12661,8 +13310,12 @@
       <c r="D404" s="30">
         <v>30.387096774193548</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F404" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>2004</v>
       </c>
@@ -12675,8 +13328,12 @@
       <c r="D405" s="30">
         <v>28.35</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F405" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>2004</v>
       </c>
@@ -12689,8 +13346,12 @@
       <c r="D406" s="30">
         <v>27.951612903225808</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F406" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>2004</v>
       </c>
@@ -12703,8 +13364,12 @@
       <c r="D407" s="30">
         <v>28.35483870967742</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F407" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>2004</v>
       </c>
@@ -12717,8 +13382,12 @@
       <c r="D408" s="30">
         <v>29.75</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F408" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>2004</v>
       </c>
@@ -12731,8 +13400,12 @@
       <c r="D409" s="30">
         <v>30.516129032258064</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F409" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>2004</v>
       </c>
@@ -12745,8 +13418,12 @@
       <c r="D410" s="30">
         <v>30.933333333333334</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F410" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>2004</v>
       </c>
@@ -12759,8 +13436,12 @@
       <c r="D411" s="30">
         <v>32.903225806451616</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F411" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>2005</v>
       </c>
@@ -12773,8 +13454,12 @@
       <c r="D412" s="30">
         <v>34.838709677419352</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F412" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>2005</v>
       </c>
@@ -12787,8 +13472,12 @@
       <c r="D413" s="30">
         <v>35.5</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F413" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>2005</v>
       </c>
@@ -12801,8 +13490,12 @@
       <c r="D414" s="30">
         <v>34.4</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F414" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>2005</v>
       </c>
@@ -12815,8 +13508,12 @@
       <c r="D415" s="30">
         <v>34.366666666666667</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F415" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2005</v>
       </c>
@@ -12829,8 +13526,12 @@
       <c r="D416" s="30">
         <v>30.161290322580644</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F416" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2005</v>
       </c>
@@ -12843,8 +13544,12 @@
       <c r="D417" s="30">
         <v>28.793103448275861</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F417" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2005</v>
       </c>
@@ -12857,8 +13562,12 @@
       <c r="D418" s="30">
         <v>28.419354838709676</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F418" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>2005</v>
       </c>
@@ -12871,8 +13580,12 @@
       <c r="D419" s="30">
         <v>28.032258064516128</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F419" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2005</v>
       </c>
@@ -12885,8 +13598,12 @@
       <c r="D420" s="30">
         <v>28.033333333333335</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F420" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2005</v>
       </c>
@@ -12899,8 +13616,12 @@
       <c r="D421" s="30">
         <v>28.806451612903224</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F421" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>2005</v>
       </c>
@@ -12913,8 +13634,12 @@
       <c r="D422" s="30">
         <v>29.366666666666667</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F422" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2005</v>
       </c>
@@ -12927,8 +13652,12 @@
       <c r="D423" s="30">
         <v>31.79032258064516</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F423" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>2006</v>
       </c>
@@ -12941,8 +13670,12 @@
       <c r="D424" s="30">
         <v>34.883870967741942</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F424" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>2006</v>
       </c>
@@ -12955,8 +13688,12 @@
       <c r="D425" s="30">
         <v>35.660714285714285</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F425" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>2006</v>
       </c>
@@ -12969,8 +13706,12 @@
       <c r="D426" s="30">
         <v>35.200000000000003</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F426" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2006</v>
       </c>
@@ -12983,8 +13724,12 @@
       <c r="D427" s="30">
         <v>33.833333333333336</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F427" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2006</v>
       </c>
@@ -12997,8 +13742,12 @@
       <c r="D428" s="30">
         <v>31.048387096774192</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F428" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>2006</v>
       </c>
@@ -13011,8 +13760,12 @@
       <c r="D429" s="30">
         <v>28.483333333333334</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F429" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2006</v>
       </c>
@@ -13025,8 +13778,12 @@
       <c r="D430" s="30">
         <v>28.516129032258064</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F430" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>2006</v>
       </c>
@@ -13039,8 +13796,12 @@
       <c r="D431" s="30">
         <v>28.758064516129032</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F431" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2006</v>
       </c>
@@ -13053,8 +13814,12 @@
       <c r="D432" s="30">
         <v>29.633333333333333</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F432" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>2006</v>
       </c>
@@ -13067,8 +13832,12 @@
       <c r="D433" s="30">
         <v>30</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F433" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2006</v>
       </c>
@@ -13081,8 +13850,12 @@
       <c r="D434" s="30">
         <v>31.316666666666666</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F434" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2006</v>
       </c>
@@ -13095,8 +13868,12 @@
       <c r="D435" s="30">
         <v>32.935483870967744</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F435" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2007</v>
       </c>
@@ -13109,8 +13886,12 @@
       <c r="D436" s="30">
         <v>34.822580645161288</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F436" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>2007</v>
       </c>
@@ -13123,8 +13904,12 @@
       <c r="D437" s="30">
         <v>36</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F437" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>2007</v>
       </c>
@@ -13137,8 +13922,12 @@
       <c r="D438" s="30">
         <v>35.9</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F438" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2007</v>
       </c>
@@ -13151,8 +13940,12 @@
       <c r="D439" s="30">
         <v>34.43333333333333</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F439" s="32" t="str">
+        <f t="shared" ref="F439:F502" si="3">IF(AND(D439&gt;0,E439&gt;0),AVERAGE(D439:E439),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>2007</v>
       </c>
@@ -13165,8 +13958,12 @@
       <c r="D440" s="30">
         <v>30.983870967741936</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F440" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>2007</v>
       </c>
@@ -13179,8 +13976,12 @@
       <c r="D441" s="30">
         <v>28.983333333333334</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F441" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>2007</v>
       </c>
@@ -13193,8 +13994,12 @@
       <c r="D442" s="30">
         <v>27.93548387096774</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F442" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2007</v>
       </c>
@@ -13207,8 +14012,12 @@
       <c r="D443" s="30">
         <v>28.7</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F443" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>2007</v>
       </c>
@@ -13221,8 +14030,12 @@
       <c r="D444" s="30">
         <v>29.7</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F444" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>2007</v>
       </c>
@@ -13235,8 +14048,12 @@
       <c r="D445" s="30">
         <v>29</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F445" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>2007</v>
       </c>
@@ -13249,8 +14066,12 @@
       <c r="D446" s="30">
         <v>31.6</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F446" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>2007</v>
       </c>
@@ -13263,8 +14084,12 @@
       <c r="D447" s="30">
         <v>33.299999999999997</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F447" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>2008</v>
       </c>
@@ -13277,8 +14102,12 @@
       <c r="D448" s="30">
         <v>34.299999999999997</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F448" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>2008</v>
       </c>
@@ -13291,8 +14120,12 @@
       <c r="D449" s="30">
         <v>35.299999999999997</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F449" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>2008</v>
       </c>
@@ -13305,8 +14138,12 @@
       <c r="D450" s="30">
         <v>34.4</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F450" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>2008</v>
       </c>
@@ -13319,8 +14156,12 @@
       <c r="D451" s="30">
         <v>33.466666666666669</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F451" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>2008</v>
       </c>
@@ -13333,8 +14174,12 @@
       <c r="D452" s="30">
         <v>30.241935483870968</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F452" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2008</v>
       </c>
@@ -13347,8 +14192,12 @@
       <c r="D453" s="30">
         <v>28.285714285714285</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F453" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2008</v>
       </c>
@@ -13361,8 +14210,12 @@
       <c r="D454" s="30">
         <v>30.1</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F454" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2008</v>
       </c>
@@ -13375,8 +14228,12 @@
       <c r="D455" s="30">
         <v>31.8</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F455" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2008</v>
       </c>
@@ -13389,8 +14246,12 @@
       <c r="D456" s="30">
         <v>31.8</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F456" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2008</v>
       </c>
@@ -13403,8 +14264,12 @@
       <c r="D457" s="30">
         <v>30.3</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F457" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2008</v>
       </c>
@@ -13417,8 +14282,12 @@
       <c r="D458" s="30">
         <v>31.7</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F458" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>2008</v>
       </c>
@@ -13431,8 +14300,12 @@
       <c r="D459" s="30">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F459" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>2009</v>
       </c>
@@ -13445,8 +14318,12 @@
       <c r="D460" s="30">
         <v>35.299999999999997</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F460" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2009</v>
       </c>
@@ -13459,8 +14336,12 @@
       <c r="D461" s="30">
         <v>35.6</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F461" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>2009</v>
       </c>
@@ -13473,8 +14354,12 @@
       <c r="D462" s="30">
         <v>35.5</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F462" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>2009</v>
       </c>
@@ -13487,8 +14372,12 @@
       <c r="D463" s="30">
         <v>34.65</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F463" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2009</v>
       </c>
@@ -13501,8 +14390,12 @@
       <c r="D464" s="30">
         <v>32</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F464" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>2009</v>
       </c>
@@ -13515,8 +14408,12 @@
       <c r="D465" s="30">
         <v>29.834666666666667</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F465" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>2009</v>
       </c>
@@ -13529,8 +14426,12 @@
       <c r="D466" s="30">
         <v>29.1</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F466" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2009</v>
       </c>
@@ -13543,8 +14444,12 @@
       <c r="D467" s="30">
         <v>28.7</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F467" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2009</v>
       </c>
@@ -13557,8 +14462,12 @@
       <c r="D468" s="30">
         <v>29.3</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F468" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2009</v>
       </c>
@@ -13571,8 +14480,12 @@
       <c r="D469" s="30">
         <v>30.2</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F469" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>2009</v>
       </c>
@@ -13585,8 +14498,12 @@
       <c r="D470" s="30">
         <v>30.4</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F470" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2009</v>
       </c>
@@ -13599,8 +14516,12 @@
       <c r="D471" s="30">
         <v>32.1</v>
       </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F471" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>2010</v>
       </c>
@@ -13614,8 +14535,12 @@
         <v>34</v>
       </c>
       <c r="E472" s="30"/>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F472" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2010</v>
       </c>
@@ -13629,8 +14554,12 @@
         <v>34.9</v>
       </c>
       <c r="E473" s="30"/>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F473" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2010</v>
       </c>
@@ -13644,8 +14573,12 @@
         <v>34.9</v>
       </c>
       <c r="E474" s="30"/>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F474" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>2010</v>
       </c>
@@ -13659,8 +14592,12 @@
         <v>35.4</v>
       </c>
       <c r="E475" s="30"/>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F475" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>2010</v>
       </c>
@@ -13674,8 +14611,12 @@
         <v>33</v>
       </c>
       <c r="E476" s="30"/>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F476" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>2010</v>
       </c>
@@ -13689,8 +14630,12 @@
         <v>29.6</v>
       </c>
       <c r="E477" s="30"/>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F477" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>2010</v>
       </c>
@@ -13704,8 +14649,12 @@
         <v>29.6</v>
       </c>
       <c r="E478" s="30"/>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F478" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>2010</v>
       </c>
@@ -13721,8 +14670,12 @@
       <c r="E479" s="30">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F479" s="32">
+        <f>IF(AND(D479&gt;0,E479&gt;0),AVERAGE(D479:E479),"")</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>2010</v>
       </c>
@@ -13738,8 +14691,12 @@
       <c r="E480" s="30">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F480" s="32">
+        <f t="shared" si="3"/>
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>2010</v>
       </c>
@@ -13755,8 +14712,12 @@
       <c r="E481" s="30">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F481" s="32">
+        <f t="shared" si="3"/>
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>2010</v>
       </c>
@@ -13772,8 +14733,12 @@
       <c r="E482" s="30">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F482" s="32">
+        <f t="shared" si="3"/>
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>2010</v>
       </c>
@@ -13789,8 +14754,12 @@
       <c r="E483" s="30">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F483" s="32">
+        <f t="shared" si="3"/>
+        <v>24.049999999999997</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>2011</v>
       </c>
@@ -13806,8 +14775,12 @@
       <c r="E484" s="30">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F484" s="32">
+        <f t="shared" si="3"/>
+        <v>25.849999999999998</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>2011</v>
       </c>
@@ -13823,8 +14796,12 @@
       <c r="E485" s="30">
         <v>18</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F485" s="32">
+        <f t="shared" si="3"/>
+        <v>26.55</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>2011</v>
       </c>
@@ -13840,8 +14817,12 @@
       <c r="E486" s="30">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F486" s="32">
+        <f t="shared" si="3"/>
+        <v>27.05</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>2011</v>
       </c>
@@ -13857,8 +14838,12 @@
       <c r="E487" s="30">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F487" s="32">
+        <f t="shared" si="3"/>
+        <v>26.950000000000003</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>2011</v>
       </c>
@@ -13874,8 +14859,12 @@
       <c r="E488" s="30">
         <v>17</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F488" s="32">
+        <f t="shared" si="3"/>
+        <v>24.45</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>2011</v>
       </c>
@@ -13891,8 +14880,12 @@
       <c r="E489" s="30">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F489" s="32">
+        <f t="shared" si="3"/>
+        <v>24.55</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2011</v>
       </c>
@@ -13908,8 +14901,12 @@
       <c r="E490" s="30">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F490" s="32">
+        <f t="shared" si="3"/>
+        <v>22.65</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>2011</v>
       </c>
@@ -13925,8 +14922,12 @@
       <c r="E491" s="30">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F491" s="32">
+        <f t="shared" si="3"/>
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>2011</v>
       </c>
@@ -13942,8 +14943,12 @@
       <c r="E492" s="30">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F492" s="32">
+        <f t="shared" si="3"/>
+        <v>22.55</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>2011</v>
       </c>
@@ -13959,8 +14964,12 @@
       <c r="E493" s="30">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F493" s="32">
+        <f t="shared" si="3"/>
+        <v>20.55</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>2011</v>
       </c>
@@ -13976,8 +14985,12 @@
       <c r="E494" s="30">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F494" s="32">
+        <f t="shared" si="3"/>
+        <v>23.35</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>2011</v>
       </c>
@@ -13993,8 +15006,12 @@
       <c r="E495" s="30">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F495" s="32">
+        <f t="shared" si="3"/>
+        <v>25.200000000000003</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>2012</v>
       </c>
@@ -14010,8 +15027,12 @@
       <c r="E496" s="30">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F496" s="32">
+        <f t="shared" si="3"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>2012</v>
       </c>
@@ -14027,8 +15048,12 @@
       <c r="E497" s="30">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F497" s="32">
+        <f t="shared" si="3"/>
+        <v>27.950000000000003</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>2012</v>
       </c>
@@ -14044,8 +15069,12 @@
       <c r="E498" s="30">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F498" s="32">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>2012</v>
       </c>
@@ -14061,8 +15090,12 @@
       <c r="E499" s="30">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F499" s="32">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>2012</v>
       </c>
@@ -14078,8 +15111,12 @@
       <c r="E500" s="30">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F500" s="32">
+        <f t="shared" si="3"/>
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2012</v>
       </c>
@@ -14095,8 +15132,12 @@
       <c r="E501" s="30">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F501" s="32">
+        <f t="shared" si="3"/>
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>2012</v>
       </c>
@@ -14112,8 +15153,12 @@
       <c r="E502" s="30">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F502" s="32">
+        <f t="shared" si="3"/>
+        <v>22.05</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>2012</v>
       </c>
@@ -14129,8 +15174,12 @@
       <c r="E503" s="30">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F503" s="32">
+        <f t="shared" ref="F503:F507" si="4">IF(AND(D503&gt;0,E503&gt;0),AVERAGE(D503:E503),"")</f>
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>2012</v>
       </c>
@@ -14146,8 +15195,12 @@
       <c r="E504" s="30">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F504" s="32">
+        <f t="shared" si="4"/>
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>2012</v>
       </c>
@@ -14163,8 +15216,12 @@
       <c r="E505" s="30">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F505" s="32">
+        <f t="shared" si="4"/>
+        <v>23.65</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>2012</v>
       </c>
@@ -14180,8 +15237,12 @@
       <c r="E506" s="30">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F506" s="32">
+        <f t="shared" si="4"/>
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>2012</v>
       </c>
@@ -14197,8 +15258,12 @@
       <c r="E507" s="30">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F507" s="32">
+        <f t="shared" si="4"/>
+        <v>24.950000000000003</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>2013</v>
       </c>
@@ -14211,8 +15276,12 @@
       <c r="E508" s="30">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F508" s="32" t="str">
+        <f>IF(AND(D508&gt;0,E508&gt;0),AVERAGE(D508:E508),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>2013</v>
       </c>
@@ -14225,8 +15294,12 @@
       <c r="E509" s="30">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F509" s="32" t="str">
+        <f>IF(AND(D509&gt;0,E509&gt;0),AVERAGE(D509:E509),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>2013</v>
       </c>
@@ -14239,8 +15312,12 @@
       <c r="E510" s="30">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F510" s="32" t="str">
+        <f>IF(AND(D510&gt;0,E510&gt;0),AVERAGE(D510:E510),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>2013</v>
       </c>
@@ -14253,8 +15330,12 @@
       <c r="E511" s="30">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F511" s="32" t="str">
+        <f t="shared" ref="F511:F522" si="5">IF(AND(D511&gt;0,E511&gt;0),AVERAGE(D511:E511),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>2013</v>
       </c>
@@ -14267,8 +15348,12 @@
       <c r="E512" s="30">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F512" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>2013</v>
       </c>
@@ -14281,8 +15366,12 @@
       <c r="E513" s="30">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F513" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>2013</v>
       </c>
@@ -14295,8 +15384,12 @@
       <c r="E514" s="30">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F514" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>2013</v>
       </c>
@@ -14309,8 +15402,12 @@
       <c r="E515" s="30">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F515" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>2013</v>
       </c>
@@ -14323,8 +15420,12 @@
       <c r="E516" s="30">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F516" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>2013</v>
       </c>
@@ -14337,8 +15438,12 @@
       <c r="E517" s="30">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F517" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>2013</v>
       </c>
@@ -14351,8 +15456,12 @@
       <c r="E518" s="30">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F518" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>2013</v>
       </c>
@@ -14365,8 +15474,12 @@
       <c r="E519" s="30">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F519" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>2014</v>
       </c>
@@ -14379,8 +15492,12 @@
       <c r="E520" s="30">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F520" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>2014</v>
       </c>
@@ -14393,8 +15510,12 @@
       <c r="E521" s="30">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F521" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>2014</v>
       </c>
@@ -14407,8 +15528,12 @@
       <c r="E522" s="30">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F522" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>2014</v>
       </c>
@@ -14424,8 +15549,12 @@
       <c r="E523" s="30">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F523" s="32">
+        <f>IF(AND(D523&gt;0,E523&gt;0),AVERAGE(D523:E523),"")</f>
+        <v>27.05</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>2014</v>
       </c>
@@ -14441,8 +15570,12 @@
       <c r="E524" s="30">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F524" s="32">
+        <f>IF(AND(D524&gt;0,E524&gt;0),AVERAGE(D524:E524),"")</f>
+        <v>27.200000000000003</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>2014</v>
       </c>
@@ -14458,8 +15591,12 @@
       <c r="E525" s="30">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F525" s="32">
+        <f>IF(AND(D525&gt;0,E525&gt;0),AVERAGE(D525:E525),"")</f>
+        <v>26.05</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>2014</v>
       </c>
@@ -14475,8 +15612,12 @@
       <c r="E526" s="30">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F526" s="32">
+        <f t="shared" ref="F526:F589" si="6">IF(AND(D526&gt;0,E526&gt;0),AVERAGE(D526:E526),"")</f>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>2014</v>
       </c>
@@ -14492,8 +15633,12 @@
       <c r="E527" s="30">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F527" s="32">
+        <f t="shared" si="6"/>
+        <v>23.799999999999997</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>2014</v>
       </c>
@@ -14509,8 +15654,12 @@
       <c r="E528" s="30">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F528" s="32">
+        <f t="shared" si="6"/>
+        <v>24.400000000000002</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>2014</v>
       </c>
@@ -14526,8 +15675,12 @@
       <c r="E529" s="30">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F529" s="32">
+        <f t="shared" si="6"/>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>2014</v>
       </c>
@@ -14543,8 +15696,12 @@
       <c r="E530" s="30">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F530" s="32">
+        <f t="shared" si="6"/>
+        <v>24.900000000000002</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>2014</v>
       </c>
@@ -14560,8 +15717,12 @@
       <c r="E531" s="30">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F531" s="32">
+        <f t="shared" si="6"/>
+        <v>26.049999999999997</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>2015</v>
       </c>
@@ -14577,8 +15738,12 @@
       <c r="E532" s="30">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F532" s="32">
+        <f t="shared" si="6"/>
+        <v>27.700000000000003</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>2015</v>
       </c>
@@ -14594,8 +15759,12 @@
       <c r="E533" s="30">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F533" s="32">
+        <f t="shared" si="6"/>
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>2015</v>
       </c>
@@ -14611,8 +15780,12 @@
       <c r="E534" s="30">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F534" s="32">
+        <f t="shared" si="6"/>
+        <v>29.25</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>2015</v>
       </c>
@@ -14628,8 +15801,12 @@
       <c r="E535" s="30">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F535" s="32">
+        <f t="shared" si="6"/>
+        <v>28.200000000000003</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>2015</v>
       </c>
@@ -14645,8 +15822,12 @@
       <c r="E536" s="30">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F536" s="32">
+        <f t="shared" si="6"/>
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>2015</v>
       </c>
@@ -14662,8 +15843,12 @@
       <c r="E537" s="30">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F537" s="32">
+        <f t="shared" si="6"/>
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>2015</v>
       </c>
@@ -14679,8 +15864,12 @@
       <c r="E538" s="30">
         <v>18</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F538" s="32">
+        <f t="shared" si="6"/>
+        <v>24.85</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>2015</v>
       </c>
@@ -14696,8 +15885,12 @@
       <c r="E539" s="30">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F539" s="32">
+        <f t="shared" si="6"/>
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>2015</v>
       </c>
@@ -14713,8 +15906,12 @@
       <c r="E540" s="30">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F540" s="32">
+        <f t="shared" si="6"/>
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>2015</v>
       </c>
@@ -14730,8 +15927,12 @@
       <c r="E541" s="30">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F541" s="32">
+        <f t="shared" si="6"/>
+        <v>25.700000000000003</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>2015</v>
       </c>
@@ -14747,8 +15948,12 @@
       <c r="E542" s="30">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F542" s="32">
+        <f t="shared" si="6"/>
+        <v>25.65</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>2015</v>
       </c>
@@ -14764,8 +15969,12 @@
       <c r="E543" s="30">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F543" s="32">
+        <f t="shared" si="6"/>
+        <v>27.450000000000003</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="23">
         <v>2016</v>
       </c>
@@ -14781,8 +15990,12 @@
       <c r="E544" s="30">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F544" s="32">
+        <f t="shared" si="6"/>
+        <v>29.049999999999997</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="23">
         <v>2016</v>
       </c>
@@ -14798,8 +16011,12 @@
       <c r="E545" s="30">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F545" s="32">
+        <f t="shared" si="6"/>
+        <v>29.950000000000003</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="23">
         <v>2016</v>
       </c>
@@ -14815,8 +16032,12 @@
       <c r="E546" s="30">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F546" s="32">
+        <f t="shared" si="6"/>
+        <v>29.75</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="23">
         <v>2016</v>
       </c>
@@ -14832,8 +16053,12 @@
       <c r="E547" s="30">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F547" s="32">
+        <f t="shared" si="6"/>
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="23">
         <v>2016</v>
       </c>
@@ -14849,8 +16074,12 @@
       <c r="E548" s="30">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F548" s="32">
+        <f t="shared" si="6"/>
+        <v>26.700000000000003</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="23">
         <v>2016</v>
       </c>
@@ -14866,8 +16095,12 @@
       <c r="E549" s="30">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F549" s="32">
+        <f t="shared" si="6"/>
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="23">
         <v>2016</v>
       </c>
@@ -14883,8 +16116,12 @@
       <c r="E550" s="30">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F550" s="32">
+        <f t="shared" si="6"/>
+        <v>24.15</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="23">
         <v>2016</v>
       </c>
@@ -14900,8 +16137,12 @@
       <c r="E551" s="30">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F551" s="32">
+        <f t="shared" si="6"/>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="23">
         <v>2016</v>
       </c>
@@ -14917,8 +16158,12 @@
       <c r="E552" s="30">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F552" s="32">
+        <f t="shared" si="6"/>
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="23">
         <v>2016</v>
       </c>
@@ -14934,8 +16179,12 @@
       <c r="E553" s="30">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F553" s="32">
+        <f t="shared" si="6"/>
+        <v>23.25</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="23">
         <v>2016</v>
       </c>
@@ -14951,8 +16200,12 @@
       <c r="E554" s="30">
         <v>14</v>
       </c>
-    </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F554" s="32">
+        <f t="shared" si="6"/>
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="23">
         <v>2016</v>
       </c>
@@ -14968,8 +16221,12 @@
       <c r="E555" s="30">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F555" s="32">
+        <f t="shared" si="6"/>
+        <v>30.900000000000002</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="23">
         <v>2017</v>
       </c>
@@ -14985,8 +16242,12 @@
       <c r="E556" s="30">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F556" s="32">
+        <f t="shared" si="6"/>
+        <v>28.45</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="23">
         <v>2017</v>
       </c>
@@ -15002,8 +16263,12 @@
       <c r="E557" s="30">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F557" s="32">
+        <f t="shared" si="6"/>
+        <v>29.35</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="23">
         <v>2017</v>
       </c>
@@ -15019,8 +16284,12 @@
       <c r="E558" s="30">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F558" s="32">
+        <f t="shared" si="6"/>
+        <v>28.95</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="23">
         <v>2017</v>
       </c>
@@ -15036,8 +16305,12 @@
       <c r="E559" s="30">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F559" s="32">
+        <f t="shared" si="6"/>
+        <v>27.450000000000003</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="23">
         <v>2017</v>
       </c>
@@ -15053,8 +16326,12 @@
       <c r="E560" s="30">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F560" s="32">
+        <f t="shared" si="6"/>
+        <v>26.349999999999998</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="23">
         <v>2017</v>
       </c>
@@ -15070,8 +16347,12 @@
       <c r="E561" s="30">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F561" s="32">
+        <f t="shared" si="6"/>
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="23">
         <v>2017</v>
       </c>
@@ -15087,8 +16368,12 @@
       <c r="E562" s="30">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F562" s="32">
+        <f t="shared" si="6"/>
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="23">
         <v>2017</v>
       </c>
@@ -15104,8 +16389,12 @@
       <c r="E563" s="30">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F563" s="32">
+        <f t="shared" si="6"/>
+        <v>22.450000000000003</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="23">
         <v>2017</v>
       </c>
@@ -15121,8 +16410,12 @@
       <c r="E564" s="30">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F564" s="32">
+        <f t="shared" si="6"/>
+        <v>23.200000000000003</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="23">
         <v>2017</v>
       </c>
@@ -15138,8 +16431,12 @@
       <c r="E565" s="30">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F565" s="32">
+        <f t="shared" si="6"/>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="23">
         <v>2017</v>
       </c>
@@ -15155,8 +16452,12 @@
       <c r="E566" s="30">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F566" s="32">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="23">
         <v>2017</v>
       </c>
@@ -15172,8 +16473,12 @@
       <c r="E567" s="30">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F567" s="32">
+        <f t="shared" si="6"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="23">
         <v>2018</v>
       </c>
@@ -15189,8 +16494,12 @@
       <c r="E568" s="30">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F568" s="32">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="23">
         <v>2018</v>
       </c>
@@ -15206,8 +16515,12 @@
       <c r="E569" s="30">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F569" s="32">
+        <f t="shared" si="6"/>
+        <v>28.200000000000003</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="23">
         <v>2018</v>
       </c>
@@ -15223,8 +16536,12 @@
       <c r="E570" s="30">
         <v>20.100000000000001</v>
       </c>
-    </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F570" s="32">
+        <f t="shared" si="6"/>
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="23">
         <v>2018</v>
       </c>
@@ -15240,8 +16557,12 @@
       <c r="E571" s="30">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F571" s="32">
+        <f t="shared" si="6"/>
+        <v>27.200000000000003</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="23">
         <v>2018</v>
       </c>
@@ -15257,8 +16578,12 @@
       <c r="E572" s="30">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F572" s="32">
+        <f t="shared" si="6"/>
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="23">
         <v>2018</v>
       </c>
@@ -15274,8 +16599,12 @@
       <c r="E573" s="30">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F573" s="32">
+        <f t="shared" si="6"/>
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="23">
         <v>2018</v>
       </c>
@@ -15291,8 +16620,12 @@
       <c r="E574" s="30">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F574" s="32">
+        <f t="shared" si="6"/>
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="23">
         <v>2018</v>
       </c>
@@ -15308,8 +16641,12 @@
       <c r="E575" s="30">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F575" s="32">
+        <f t="shared" si="6"/>
+        <v>23.299999999999997</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="23">
         <v>2018</v>
       </c>
@@ -15325,8 +16662,12 @@
       <c r="E576" s="30">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F576" s="32">
+        <f t="shared" si="6"/>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="23">
         <v>2018</v>
       </c>
@@ -15342,8 +16683,12 @@
       <c r="E577" s="30">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F577" s="32">
+        <f t="shared" si="6"/>
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="23">
         <v>2018</v>
       </c>
@@ -15359,8 +16704,12 @@
       <c r="E578" s="30">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F578" s="32">
+        <f t="shared" si="6"/>
+        <v>24.950000000000003</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="23">
         <v>2018</v>
       </c>
@@ -15376,8 +16725,12 @@
       <c r="E579" s="30">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F579" s="32">
+        <f t="shared" si="6"/>
+        <v>25.25</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="23">
         <v>2019</v>
       </c>
@@ -15393,8 +16746,12 @@
       <c r="E580" s="30">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F580" s="32">
+        <f t="shared" si="6"/>
+        <v>28.700000000000003</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="23">
         <v>2019</v>
       </c>
@@ -15410,8 +16767,12 @@
       <c r="E581" s="30">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F581" s="32">
+        <f t="shared" si="6"/>
+        <v>29.150000000000002</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="23">
         <v>2019</v>
       </c>
@@ -15427,8 +16788,12 @@
       <c r="E582" s="30">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F582" s="32">
+        <f t="shared" si="6"/>
+        <v>28.950000000000003</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="23">
         <v>2019</v>
       </c>
@@ -15444,8 +16809,12 @@
       <c r="E583" s="30">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F583" s="32">
+        <f t="shared" si="6"/>
+        <v>27.95</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="23">
         <v>2019</v>
       </c>
@@ -15461,8 +16830,12 @@
       <c r="E584" s="30">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F584" s="32">
+        <f t="shared" si="6"/>
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="23">
         <v>2019</v>
       </c>
@@ -15478,8 +16851,12 @@
       <c r="E585" s="30">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F585" s="32">
+        <f t="shared" si="6"/>
+        <v>24.299999999999997</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="23">
         <v>2019</v>
       </c>
@@ -15495,8 +16872,12 @@
       <c r="E586" s="30">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F586" s="32">
+        <f t="shared" si="6"/>
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="23">
         <v>2019</v>
       </c>
@@ -15512,8 +16893,12 @@
       <c r="E587" s="30">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F587" s="32">
+        <f t="shared" si="6"/>
+        <v>22.799999999999997</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="23">
         <v>2019</v>
       </c>
@@ -15529,8 +16914,12 @@
       <c r="E588" s="30">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F588" s="32">
+        <f t="shared" si="6"/>
+        <v>23.200000000000003</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="23">
         <v>2019</v>
       </c>
@@ -15546,8 +16935,12 @@
       <c r="E589" s="30">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F589" s="32">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="23">
         <v>2019</v>
       </c>
@@ -15563,8 +16956,12 @@
       <c r="E590" s="30">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F590" s="32">
+        <f t="shared" ref="F590:F603" si="7">IF(AND(D590&gt;0,E590&gt;0),AVERAGE(D590:E590),"")</f>
+        <v>24.85</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="23">
         <v>2019</v>
       </c>
@@ -15580,8 +16977,12 @@
       <c r="E591" s="30">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F591" s="32">
+        <f t="shared" si="7"/>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" s="23">
         <v>2020</v>
       </c>
@@ -15594,8 +16995,12 @@
       <c r="E592" s="31">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F592" s="32">
+        <f t="shared" si="7"/>
+        <v>28.65</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" s="23">
         <v>2020</v>
       </c>
@@ -15608,8 +17013,12 @@
       <c r="E593">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F593" s="32">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="23">
         <v>2020</v>
       </c>
@@ -15622,8 +17031,12 @@
       <c r="E594">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F594" s="32">
+        <f t="shared" si="7"/>
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="23">
         <v>2020</v>
       </c>
@@ -15636,8 +17049,12 @@
       <c r="E595">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F595" s="32">
+        <f t="shared" si="7"/>
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="23">
         <v>2020</v>
       </c>
@@ -15650,8 +17067,12 @@
       <c r="E596">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F596" s="32">
+        <f t="shared" si="7"/>
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="23">
         <v>2020</v>
       </c>
@@ -15664,8 +17085,12 @@
       <c r="E597">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F597" s="32">
+        <f t="shared" si="7"/>
+        <v>23.200000000000003</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" s="23">
         <v>2020</v>
       </c>
@@ -15678,8 +17103,9 @@
       <c r="E598" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F598" s="32"/>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="23">
         <v>2020</v>
       </c>
@@ -15692,8 +17118,12 @@
       <c r="E599">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F599" s="32">
+        <f>IF(AND(D599&gt;0,E599&gt;0),AVERAGE(D599:E599),"")</f>
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="23">
         <v>2020</v>
       </c>
@@ -15706,8 +17136,12 @@
       <c r="E600">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F600" s="32">
+        <f t="shared" si="7"/>
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" s="23">
         <v>2020</v>
       </c>
@@ -15720,24 +17154,50 @@
       <c r="E601">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F601" s="32">
+        <f t="shared" si="7"/>
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" s="23">
         <v>2020</v>
       </c>
       <c r="B602" s="23">
         <v>11</v>
       </c>
-    </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F602" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="23">
         <v>2020</v>
       </c>
       <c r="B603" s="23">
         <v>12</v>
+      </c>
+      <c r="F603" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AF924B-7CB1-4594-A45A-5DE9F92280B3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/UDEP_1991-2019.xlsx
+++ b/Data/UDEP_1991-2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\Tesis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC38DCCF-291F-43D0-A3CE-887D7139F673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228007DE-C5F0-42FC-8FA5-4D918A34BCDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1A1A1C07-F415-4062-AF83-746E68B08CEC}"/>
   </bookViews>
@@ -189,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +249,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -340,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -382,6 +388,15 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8111,8 +8126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1584AD87-B3AE-4A30-BA44-91C91E8959D2}">
   <dimension ref="A3:G603"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F479" sqref="F479"/>
+    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="E598" sqref="E598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10071,14 +10086,10 @@
         <v>33</v>
       </c>
       <c r="E244" s="28"/>
-      <c r="F244" s="32" t="str">
-        <f>IF(AND(D244&gt;0,E244&gt;0),AVERAGE(D244:E244),"")</f>
-        <v/>
-      </c>
-      <c r="G244" s="32">
-        <f>AVERAGE(D244:E244)</f>
-        <v>33</v>
-      </c>
+      <c r="F244" s="33">
+        <v>26.8</v>
+      </c>
+      <c r="G244" s="32"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
@@ -10096,9 +10107,8 @@
       <c r="E245" s="29">
         <v>23.7</v>
       </c>
-      <c r="F245" s="32">
-        <f>IF(AND(D245&gt;0,E245&gt;0),AVERAGE(D245:E245),"")</f>
-        <v>28.6</v>
+      <c r="F245" s="29">
+        <v>27.2</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -10117,9 +10127,8 @@
       <c r="E246" s="29">
         <v>23.9</v>
       </c>
-      <c r="F246" s="32">
-        <f>IF(AND(D246&gt;0,E246&gt;0),AVERAGE(D246:E246),"")</f>
-        <v>28.75</v>
+      <c r="F246" s="29">
+        <v>27.5</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -10138,9 +10147,8 @@
       <c r="E247" s="29">
         <v>21.8</v>
       </c>
-      <c r="F247" s="32">
-        <f t="shared" ref="F247:F310" si="0">IF(AND(D247&gt;0,E247&gt;0),AVERAGE(D247:E247),"")</f>
-        <v>27.1</v>
+      <c r="F247" s="29">
+        <v>25.8</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -10159,9 +10167,8 @@
       <c r="E248" s="29">
         <v>20.7</v>
       </c>
-      <c r="F248" s="32">
-        <f t="shared" si="0"/>
-        <v>25.799999999999997</v>
+      <c r="F248" s="29">
+        <v>24.8</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -10180,9 +10187,8 @@
       <c r="E249" s="29">
         <v>19.3</v>
       </c>
-      <c r="F249" s="32">
-        <f t="shared" si="0"/>
-        <v>23.700000000000003</v>
+      <c r="F249" s="29">
+        <v>22.6</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -10201,9 +10207,8 @@
       <c r="E250" s="29">
         <v>17.7</v>
       </c>
-      <c r="F250" s="32">
-        <f t="shared" si="0"/>
-        <v>21.9</v>
+      <c r="F250" s="29">
+        <v>20.5</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -10222,9 +10227,8 @@
       <c r="E251" s="29">
         <v>17.600000000000001</v>
       </c>
-      <c r="F251" s="32">
-        <f t="shared" si="0"/>
-        <v>21.9</v>
+      <c r="F251" s="29">
+        <v>20.6</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -10243,9 +10247,8 @@
       <c r="E252" s="29">
         <v>17.899999999999999</v>
       </c>
-      <c r="F252" s="32">
-        <f t="shared" si="0"/>
-        <v>22.75</v>
+      <c r="F252" s="29">
+        <v>21.2</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -10264,9 +10267,8 @@
       <c r="E253" s="29">
         <v>18.2</v>
       </c>
-      <c r="F253" s="32">
-        <f t="shared" si="0"/>
-        <v>23.35</v>
+      <c r="F253" s="29">
+        <v>21.8</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -10285,9 +10287,8 @@
       <c r="E254" s="29">
         <v>18.8</v>
       </c>
-      <c r="F254" s="32">
-        <f t="shared" si="0"/>
-        <v>24.15</v>
+      <c r="F254" s="29">
+        <v>22.6</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -10306,9 +10307,8 @@
       <c r="E255" s="29">
         <v>21.8</v>
       </c>
-      <c r="F255" s="32">
-        <f t="shared" si="0"/>
-        <v>26.200000000000003</v>
+      <c r="F255" s="29">
+        <v>24.9</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -10327,9 +10327,8 @@
       <c r="E256" s="30">
         <v>23.6</v>
       </c>
-      <c r="F256" s="32">
-        <f t="shared" si="0"/>
-        <v>28.150000000000002</v>
+      <c r="F256" s="30">
+        <v>27</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -10348,9 +10347,8 @@
       <c r="E257" s="30">
         <v>24.5</v>
       </c>
-      <c r="F257" s="32">
-        <f t="shared" si="0"/>
-        <v>28.85</v>
+      <c r="F257" s="30">
+        <v>27.8</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -10369,9 +10367,8 @@
       <c r="E258" s="30">
         <v>25.3</v>
       </c>
-      <c r="F258" s="32">
-        <f t="shared" si="0"/>
-        <v>29.5</v>
+      <c r="F258" s="30">
+        <v>28.5</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -10390,9 +10387,8 @@
       <c r="E259" s="30">
         <v>23.6</v>
       </c>
-      <c r="F259" s="32">
-        <f t="shared" si="0"/>
-        <v>28.400000000000002</v>
+      <c r="F259" s="30">
+        <v>27.4</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -10411,9 +10407,8 @@
       <c r="E260" s="30">
         <v>23.6</v>
       </c>
-      <c r="F260" s="32">
-        <f t="shared" si="0"/>
-        <v>27.6</v>
+      <c r="F260" s="30">
+        <v>26.5</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -10432,9 +10427,8 @@
       <c r="E261" s="30">
         <v>19.100000000000001</v>
       </c>
-      <c r="F261" s="32">
-        <f t="shared" si="0"/>
-        <v>23.85</v>
+      <c r="F261" s="30">
+        <v>23.4</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -10453,9 +10447,8 @@
       <c r="E262" s="30">
         <v>16.7</v>
       </c>
-      <c r="F262" s="32">
-        <f t="shared" si="0"/>
-        <v>22.049999999999997</v>
+      <c r="F262" s="30">
+        <v>21.6</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -10474,9 +10467,8 @@
       <c r="E263" s="30">
         <v>18.3</v>
       </c>
-      <c r="F263" s="32">
-        <f t="shared" si="0"/>
-        <v>23</v>
+      <c r="F263" s="30">
+        <v>21.3</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -10495,9 +10487,8 @@
       <c r="E264" s="30">
         <v>18.5</v>
       </c>
-      <c r="F264" s="32">
-        <f t="shared" si="0"/>
-        <v>23.25</v>
+      <c r="F264" s="30">
+        <v>21.6</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -10516,9 +10507,8 @@
       <c r="E265" s="30">
         <v>18.3</v>
       </c>
-      <c r="F265" s="32">
-        <f t="shared" si="0"/>
-        <v>23.85</v>
+      <c r="F265" s="30">
+        <v>22.2</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -10537,9 +10527,8 @@
       <c r="E266" s="30">
         <v>19</v>
       </c>
-      <c r="F266" s="32">
-        <f t="shared" si="0"/>
-        <v>24.4</v>
+      <c r="F266" s="30">
+        <v>22.7</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -10558,9 +10547,8 @@
       <c r="E267" s="30">
         <v>19.8</v>
       </c>
-      <c r="F267" s="32">
-        <f t="shared" si="0"/>
-        <v>25.5</v>
+      <c r="F267" s="30">
+        <v>24.2</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -10579,9 +10567,8 @@
       <c r="E268" s="30">
         <v>22</v>
       </c>
-      <c r="F268" s="32">
-        <f t="shared" si="0"/>
-        <v>27.55</v>
+      <c r="F268" s="30">
+        <v>26.3</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -10600,9 +10587,8 @@
       <c r="E269" s="30">
         <v>22.5</v>
       </c>
-      <c r="F269" s="32">
-        <f t="shared" si="0"/>
-        <v>28.15</v>
+      <c r="F269" s="30">
+        <v>27.4</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -10621,9 +10607,8 @@
       <c r="E270" s="30">
         <v>21.3</v>
       </c>
-      <c r="F270" s="32">
-        <f t="shared" si="0"/>
-        <v>28.1</v>
+      <c r="F270" s="30">
+        <v>26.5</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -10642,9 +10627,8 @@
       <c r="E271" s="30">
         <v>20.5</v>
       </c>
-      <c r="F271" s="32">
-        <f t="shared" si="0"/>
-        <v>27.6</v>
+      <c r="F271" s="30">
+        <v>26.1</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -10663,9 +10647,8 @@
       <c r="E272" s="30">
         <v>19.5</v>
       </c>
-      <c r="F272" s="32">
-        <f t="shared" si="0"/>
-        <v>25.5</v>
+      <c r="F272" s="30">
+        <v>23.9</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -10684,9 +10667,8 @@
       <c r="E273" s="30">
         <v>18.5</v>
       </c>
-      <c r="F273" s="32">
-        <f t="shared" si="0"/>
-        <v>24.05</v>
+      <c r="F273" s="30">
+        <v>22.5</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -10705,9 +10687,8 @@
       <c r="E274" s="30">
         <v>16.899999999999999</v>
       </c>
-      <c r="F274" s="32">
-        <f t="shared" si="0"/>
-        <v>22.85</v>
+      <c r="F274" s="30">
+        <v>21.1</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -10726,9 +10707,8 @@
       <c r="E275" s="30">
         <v>16.3</v>
       </c>
-      <c r="F275" s="32">
-        <f t="shared" si="0"/>
-        <v>22.700000000000003</v>
+      <c r="F275" s="30">
+        <v>20.7</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -10747,9 +10727,8 @@
       <c r="E276" s="30">
         <v>16.399999999999999</v>
       </c>
-      <c r="F276" s="32">
-        <f t="shared" si="0"/>
-        <v>23.6</v>
+      <c r="F276" s="30">
+        <v>21.4</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -10768,9 +10747,8 @@
       <c r="E277" s="30">
         <v>16.5</v>
       </c>
-      <c r="F277" s="32">
-        <f t="shared" si="0"/>
-        <v>24.1</v>
+      <c r="F277" s="30">
+        <v>21.9</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -10789,9 +10767,8 @@
       <c r="E278" s="30">
         <v>16.5</v>
       </c>
-      <c r="F278" s="32">
-        <f t="shared" si="0"/>
-        <v>24.25</v>
+      <c r="F278" s="30">
+        <v>21.9</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -10810,9 +10787,8 @@
       <c r="E279" s="30">
         <v>18.7</v>
       </c>
-      <c r="F279" s="32">
-        <f t="shared" si="0"/>
-        <v>26.299999999999997</v>
+      <c r="F279" s="30">
+        <v>24.1</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -10831,9 +10807,8 @@
       <c r="E280" s="30">
         <v>20.399999999999999</v>
       </c>
-      <c r="F280" s="32">
-        <f t="shared" si="0"/>
-        <v>27.15</v>
+      <c r="F280" s="30">
+        <v>25.7</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -10852,9 +10827,8 @@
       <c r="E281" s="30">
         <v>21.9</v>
       </c>
-      <c r="F281" s="32">
-        <f t="shared" si="0"/>
-        <v>29.05</v>
+      <c r="F281" s="30">
+        <v>27.2</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -10873,9 +10847,8 @@
       <c r="E282" s="30">
         <v>21</v>
       </c>
-      <c r="F282" s="32">
-        <f t="shared" si="0"/>
-        <v>28.3</v>
+      <c r="F282" s="30">
+        <v>26.7</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -10894,9 +10867,8 @@
       <c r="E283" s="30">
         <v>20.3</v>
       </c>
-      <c r="F283" s="32">
-        <f t="shared" si="0"/>
-        <v>27.200000000000003</v>
+      <c r="F283" s="30">
+        <v>25.7</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -10915,9 +10887,8 @@
       <c r="E284" s="30">
         <v>18.100000000000001</v>
       </c>
-      <c r="F284" s="32">
-        <f t="shared" si="0"/>
-        <v>25.150000000000002</v>
+      <c r="F284" s="30">
+        <v>23.6</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -10936,9 +10907,8 @@
       <c r="E285" s="30">
         <v>16.5</v>
       </c>
-      <c r="F285" s="32">
-        <f t="shared" si="0"/>
-        <v>23.5</v>
+      <c r="F285" s="30">
+        <v>21.9</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -10957,9 +10927,8 @@
       <c r="E286" s="30">
         <v>15.1</v>
       </c>
-      <c r="F286" s="32">
-        <f t="shared" si="0"/>
-        <v>21.7</v>
+      <c r="F286" s="30">
+        <v>19.7</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -10978,9 +10947,8 @@
       <c r="E287" s="30">
         <v>15.4</v>
       </c>
-      <c r="F287" s="32">
-        <f t="shared" si="0"/>
-        <v>22.25</v>
+      <c r="F287" s="30">
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -10999,9 +10967,8 @@
       <c r="E288" s="30">
         <v>16.100000000000001</v>
       </c>
-      <c r="F288" s="32">
-        <f t="shared" si="0"/>
-        <v>23.6</v>
+      <c r="F288" s="30">
+        <v>21.2</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -11020,9 +10987,8 @@
       <c r="E289" s="30">
         <v>16.3</v>
       </c>
-      <c r="F289" s="32">
-        <f t="shared" si="0"/>
-        <v>23.9</v>
+      <c r="F289" s="30">
+        <v>21.6</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -11041,9 +11007,8 @@
       <c r="E290" s="30">
         <v>17.3</v>
       </c>
-      <c r="F290" s="32">
-        <f t="shared" si="0"/>
-        <v>24.85</v>
+      <c r="F290" s="30">
+        <v>22.8</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -11062,9 +11027,8 @@
       <c r="E291" s="30">
         <v>19.600000000000001</v>
       </c>
-      <c r="F291" s="32">
-        <f t="shared" si="0"/>
-        <v>26.900000000000002</v>
+      <c r="F291" s="30">
+        <v>24.8</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -11083,9 +11047,8 @@
       <c r="E292" s="30">
         <v>21.8</v>
       </c>
-      <c r="F292" s="32">
-        <f t="shared" si="0"/>
-        <v>28.85</v>
+      <c r="F292" s="30">
+        <v>26.9</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -11104,9 +11067,8 @@
       <c r="E293" s="30">
         <v>22</v>
       </c>
-      <c r="F293" s="32">
-        <f t="shared" si="0"/>
-        <v>29.15</v>
+      <c r="F293" s="30">
+        <v>27.5</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -11125,9 +11087,8 @@
       <c r="E294" s="30">
         <v>21.3</v>
       </c>
-      <c r="F294" s="32">
-        <f t="shared" si="0"/>
-        <v>29</v>
+      <c r="F294" s="30">
+        <v>27.3</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -11146,9 +11107,8 @@
       <c r="E295" s="30">
         <v>19.2</v>
       </c>
-      <c r="F295" s="32">
-        <f t="shared" si="0"/>
-        <v>27.049999999999997</v>
+      <c r="F295" s="30">
+        <v>25.2</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -11167,9 +11127,8 @@
       <c r="E296" s="30">
         <v>17.8</v>
       </c>
-      <c r="F296" s="32">
-        <f t="shared" si="0"/>
-        <v>25.15</v>
+      <c r="F296" s="30">
+        <v>23.4</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -11188,9 +11147,8 @@
       <c r="E297" s="30">
         <v>16.8</v>
       </c>
-      <c r="F297" s="32">
-        <f t="shared" si="0"/>
-        <v>24</v>
+      <c r="F297" s="30">
+        <v>22.2</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -11209,9 +11167,8 @@
       <c r="E298" s="30">
         <v>15.9</v>
       </c>
-      <c r="F298" s="32">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
+      <c r="F298" s="30">
+        <v>20.6</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -11230,9 +11187,8 @@
       <c r="E299" s="30">
         <v>15.3</v>
       </c>
-      <c r="F299" s="32">
-        <f t="shared" si="0"/>
-        <v>22.450000000000003</v>
+      <c r="F299" s="30">
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -11251,9 +11207,8 @@
       <c r="E300" s="30">
         <v>15.8</v>
       </c>
-      <c r="F300" s="32">
-        <f t="shared" si="0"/>
-        <v>23.8</v>
+      <c r="F300" s="30">
+        <v>21.2</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -11272,9 +11227,8 @@
       <c r="E301" s="30">
         <v>16.2</v>
       </c>
-      <c r="F301" s="32">
-        <f t="shared" si="0"/>
-        <v>23.799999999999997</v>
+      <c r="F301" s="30">
+        <v>21.4</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -11293,9 +11247,8 @@
       <c r="E302" s="30">
         <v>17.7</v>
       </c>
-      <c r="F302" s="32">
-        <f t="shared" si="0"/>
-        <v>25.450000000000003</v>
+      <c r="F302" s="30">
+        <v>22.9</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -11314,9 +11267,8 @@
       <c r="E303" s="30">
         <v>18</v>
       </c>
-      <c r="F303" s="32">
-        <f t="shared" si="0"/>
-        <v>26.05</v>
+      <c r="F303" s="30">
+        <v>23.8</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -11335,9 +11287,8 @@
       <c r="E304" s="30">
         <v>21.6</v>
       </c>
-      <c r="F304" s="32">
-        <f t="shared" si="0"/>
-        <v>28.400000000000002</v>
+      <c r="F304" s="30">
+        <v>25.7</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -11356,9 +11307,8 @@
       <c r="E305" s="30">
         <v>23</v>
       </c>
-      <c r="F305" s="32">
-        <f t="shared" si="0"/>
-        <v>30.2</v>
+      <c r="F305" s="30">
+        <v>27.5</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -11377,9 +11327,8 @@
       <c r="E306" s="30">
         <v>23.3</v>
       </c>
-      <c r="F306" s="32">
-        <f t="shared" si="0"/>
-        <v>29.950000000000003</v>
+      <c r="F306" s="30">
+        <v>27</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -11398,9 +11347,8 @@
       <c r="E307" s="30">
         <v>20.3</v>
       </c>
-      <c r="F307" s="32">
-        <f t="shared" si="0"/>
-        <v>27.25</v>
+      <c r="F307" s="30">
+        <v>24.5</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -11419,9 +11367,8 @@
       <c r="E308" s="30">
         <v>18.8</v>
       </c>
-      <c r="F308" s="32">
-        <f t="shared" si="0"/>
-        <v>25.700000000000003</v>
+      <c r="F308" s="30">
+        <v>23.8</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -11440,9 +11387,8 @@
       <c r="E309" s="30">
         <v>17.8</v>
       </c>
-      <c r="F309" s="32">
-        <f t="shared" si="0"/>
-        <v>23.55</v>
+      <c r="F309" s="30">
+        <v>20.3</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -11461,9 +11407,8 @@
       <c r="E310" s="30">
         <v>16.5</v>
       </c>
-      <c r="F310" s="32">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
+      <c r="F310" s="30">
+        <v>19.3</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -11482,9 +11427,8 @@
       <c r="E311" s="30">
         <v>17</v>
       </c>
-      <c r="F311" s="32">
-        <f t="shared" ref="F311:F374" si="1">IF(AND(D311&gt;0,E311&gt;0),AVERAGE(D311:E311),"")</f>
-        <v>23.35</v>
+      <c r="F311" s="30">
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -11503,9 +11447,8 @@
       <c r="E312" s="30">
         <v>17.3</v>
       </c>
-      <c r="F312" s="32">
-        <f t="shared" si="1"/>
-        <v>24.25</v>
+      <c r="F312" s="30">
+        <v>20.8</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -11524,9 +11467,8 @@
       <c r="E313" s="30">
         <v>18.100000000000001</v>
       </c>
-      <c r="F313" s="32">
-        <f t="shared" si="1"/>
-        <v>25.05</v>
+      <c r="F313" s="30">
+        <v>21.5</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -11545,9 +11487,8 @@
       <c r="E314" s="30">
         <v>18.2</v>
       </c>
-      <c r="F314" s="32">
-        <f t="shared" si="1"/>
-        <v>25.15</v>
+      <c r="F314" s="30">
+        <v>21.9</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -11566,9 +11507,8 @@
       <c r="E315" s="30">
         <v>19.5</v>
       </c>
-      <c r="F315" s="32">
-        <f t="shared" si="1"/>
-        <v>27</v>
+      <c r="F315" s="30">
+        <v>24.1</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -11587,9 +11527,8 @@
       <c r="E316" s="30">
         <v>19.2</v>
       </c>
-      <c r="F316" s="32">
-        <f t="shared" si="1"/>
-        <v>27.15</v>
+      <c r="F316" s="30">
+        <v>25.5</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -11608,9 +11547,8 @@
       <c r="E317" s="30">
         <v>21.3</v>
       </c>
-      <c r="F317" s="32">
-        <f t="shared" si="1"/>
-        <v>28.65</v>
+      <c r="F317" s="30">
+        <v>27.2</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -11629,9 +11567,8 @@
       <c r="E318" s="30">
         <v>22.1</v>
       </c>
-      <c r="F318" s="32">
-        <f t="shared" si="1"/>
-        <v>29.7</v>
+      <c r="F318" s="30">
+        <v>28</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -11650,9 +11587,8 @@
       <c r="E319" s="30">
         <v>22.4</v>
       </c>
-      <c r="F319" s="32">
-        <f t="shared" si="1"/>
-        <v>28.95</v>
+      <c r="F319" s="30">
+        <v>26.9</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -11671,9 +11607,8 @@
       <c r="E320" s="30">
         <v>21.8</v>
       </c>
-      <c r="F320" s="32">
-        <f t="shared" si="1"/>
-        <v>28.700000000000003</v>
+      <c r="F320" s="30">
+        <v>26.9</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -11692,9 +11627,8 @@
       <c r="E321" s="30">
         <v>21.3</v>
       </c>
-      <c r="F321" s="32">
-        <f t="shared" si="1"/>
-        <v>27.35</v>
+      <c r="F321" s="30">
+        <v>25.7</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -11713,9 +11647,8 @@
       <c r="E322" s="30">
         <v>20.2</v>
       </c>
-      <c r="F322" s="32">
-        <f t="shared" si="1"/>
-        <v>26.549999999999997</v>
+      <c r="F322" s="30">
+        <v>25</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -11734,9 +11667,8 @@
       <c r="E323" s="30">
         <v>20.5</v>
       </c>
-      <c r="F323" s="32">
-        <f t="shared" si="1"/>
-        <v>26.75</v>
+      <c r="F323" s="30">
+        <v>25</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -11755,9 +11687,8 @@
       <c r="E324" s="30">
         <v>21.2</v>
       </c>
-      <c r="F324" s="32">
-        <f t="shared" si="1"/>
-        <v>27.75</v>
+      <c r="F324" s="30">
+        <v>25.8</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -11776,9 +11707,8 @@
       <c r="E325" s="30">
         <v>21.7</v>
       </c>
-      <c r="F325" s="32">
-        <f t="shared" si="1"/>
-        <v>27</v>
+      <c r="F325" s="30">
+        <v>25.5</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -11797,9 +11727,8 @@
       <c r="E326" s="30">
         <v>23.8</v>
       </c>
-      <c r="F326" s="32">
-        <f t="shared" si="1"/>
-        <v>28.200000000000003</v>
+      <c r="F326" s="30">
+        <v>27</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -11818,9 +11747,8 @@
       <c r="E327" s="30">
         <v>23.2</v>
       </c>
-      <c r="F327" s="32">
-        <f t="shared" si="1"/>
-        <v>28.950000000000003</v>
+      <c r="F327" s="30">
+        <v>27.6</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -11839,9 +11767,8 @@
       <c r="E328" s="30">
         <v>24.1</v>
       </c>
-      <c r="F328" s="32">
-        <f t="shared" si="1"/>
-        <v>28.7</v>
+      <c r="F328" s="30">
+        <v>27.5</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -11860,9 +11787,8 @@
       <c r="E329" s="30">
         <v>24.5</v>
       </c>
-      <c r="F329" s="32">
-        <f t="shared" si="1"/>
-        <v>29</v>
+      <c r="F329" s="30">
+        <v>28</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -11881,9 +11807,8 @@
       <c r="E330" s="30">
         <v>24</v>
       </c>
-      <c r="F330" s="32">
-        <f t="shared" si="1"/>
-        <v>28.65</v>
+      <c r="F330" s="30">
+        <v>27.5</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -11902,9 +11827,8 @@
       <c r="E331" s="30">
         <v>23.5</v>
       </c>
-      <c r="F331" s="32">
-        <f t="shared" si="1"/>
-        <v>28.1</v>
+      <c r="F331" s="30">
+        <v>26.9</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -11923,9 +11847,8 @@
       <c r="E332" s="30">
         <v>22.2</v>
       </c>
-      <c r="F332" s="32">
-        <f t="shared" si="1"/>
-        <v>26.15</v>
+      <c r="F332" s="30">
+        <v>25</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -11944,9 +11867,8 @@
       <c r="E333" s="30">
         <v>19.7</v>
       </c>
-      <c r="F333" s="32">
-        <f t="shared" si="1"/>
-        <v>24.45</v>
+      <c r="F333" s="30">
+        <v>23.3</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -11965,9 +11887,8 @@
       <c r="E334" s="30">
         <v>18.399999999999999</v>
       </c>
-      <c r="F334" s="32">
-        <f t="shared" si="1"/>
-        <v>23.299999999999997</v>
+      <c r="F334" s="30">
+        <v>22</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -11986,9 +11907,8 @@
       <c r="E335" s="30">
         <v>17</v>
       </c>
-      <c r="F335" s="32">
-        <f t="shared" si="1"/>
-        <v>22.1</v>
+      <c r="F335" s="30">
+        <v>20.6</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -12007,9 +11927,8 @@
       <c r="E336" s="30">
         <v>17.399999999999999</v>
       </c>
-      <c r="F336" s="32">
-        <f t="shared" si="1"/>
-        <v>22.7</v>
+      <c r="F336" s="30">
+        <v>21</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -12028,9 +11947,8 @@
       <c r="E337" s="30">
         <v>18.2</v>
       </c>
-      <c r="F337" s="32">
-        <f t="shared" si="1"/>
-        <v>23.2</v>
+      <c r="F337" s="30">
+        <v>21.8</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -12049,9 +11967,8 @@
       <c r="E338" s="30">
         <v>17.8</v>
       </c>
-      <c r="F338" s="32">
-        <f t="shared" si="1"/>
-        <v>23.55</v>
+      <c r="F338" s="30">
+        <v>22</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -12070,9 +11987,8 @@
       <c r="E339" s="30">
         <v>18</v>
       </c>
-      <c r="F339" s="32">
-        <f t="shared" si="1"/>
-        <v>24.35</v>
+      <c r="F339" s="30">
+        <v>23</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -12091,9 +12007,8 @@
       <c r="E340" s="30">
         <v>20.100000000000001</v>
       </c>
-      <c r="F340" s="32">
-        <f t="shared" si="1"/>
-        <v>26.25</v>
+      <c r="F340" s="30">
+        <v>24.737163978494614</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -12112,9 +12027,8 @@
       <c r="E341" s="30">
         <v>22.9</v>
       </c>
-      <c r="F341" s="32">
-        <f t="shared" si="1"/>
-        <v>28.05</v>
+      <c r="F341" s="30">
+        <v>26.540384615384617</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -12133,9 +12047,8 @@
       <c r="E342" s="30">
         <v>21.8</v>
       </c>
-      <c r="F342" s="32">
-        <f t="shared" si="1"/>
-        <v>28.200000000000003</v>
+      <c r="F342" s="30">
+        <v>26.822580645161295</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -12154,9 +12067,8 @@
       <c r="E343" s="30">
         <v>20.399999999999999</v>
       </c>
-      <c r="F343" s="32">
-        <f t="shared" si="1"/>
-        <v>26.25</v>
+      <c r="F343" s="30">
+        <v>24.764305555555556</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -12175,9 +12087,8 @@
       <c r="E344" s="30">
         <v>18</v>
       </c>
-      <c r="F344" s="32">
-        <f t="shared" si="1"/>
-        <v>23.35</v>
+      <c r="F344" s="30">
+        <v>22.003225806451614</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -12196,9 +12107,8 @@
       <c r="E345" s="30">
         <v>17.399999999999999</v>
       </c>
-      <c r="F345" s="32">
-        <f t="shared" si="1"/>
-        <v>22.1</v>
+      <c r="F345" s="30">
+        <v>20.656872400475343</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -12217,9 +12127,8 @@
       <c r="E346" s="30">
         <v>16.5</v>
       </c>
-      <c r="F346" s="32">
-        <f t="shared" si="1"/>
-        <v>21.1</v>
+      <c r="F346" s="30">
+        <v>19.77513888888889</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -12238,9 +12147,8 @@
       <c r="E347" s="30">
         <v>16.600000000000001</v>
       </c>
-      <c r="F347" s="32">
-        <f t="shared" si="1"/>
-        <v>21.5</v>
+      <c r="F347" s="30">
+        <v>19.877688172043008</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -12259,9 +12167,8 @@
       <c r="E348" s="30">
         <v>19.399999999999999</v>
       </c>
-      <c r="F348" s="32">
-        <f t="shared" si="1"/>
-        <v>23.35</v>
+      <c r="F348" s="30">
+        <v>19.922651637144387</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -12280,9 +12187,8 @@
       <c r="E349" s="30">
         <v>17</v>
       </c>
-      <c r="F349" s="32">
-        <f t="shared" si="1"/>
-        <v>23</v>
+      <c r="F349" s="30">
+        <v>21.07694892473118</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -12301,9 +12207,8 @@
       <c r="E350" s="30">
         <v>17.600000000000001</v>
       </c>
-      <c r="F350" s="32">
-        <f t="shared" si="1"/>
-        <v>23.700000000000003</v>
+      <c r="F350" s="30">
+        <v>21.81815520811023</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -12322,9 +12227,8 @@
       <c r="E351" s="30">
         <v>19.100000000000001</v>
       </c>
-      <c r="F351" s="32">
-        <f t="shared" si="1"/>
-        <v>25.05</v>
+      <c r="F351" s="30">
+        <v>23.338486442262742</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -12341,10 +12245,7 @@
         <v>33</v>
       </c>
       <c r="E352" s="30"/>
-      <c r="F352" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="F352" s="30"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
@@ -12362,9 +12263,8 @@
       <c r="E353" s="30">
         <v>22.35107142857143</v>
       </c>
-      <c r="F353" s="32">
-        <f t="shared" si="1"/>
-        <v>28.108035714285716</v>
+      <c r="F353" s="30">
+        <v>26.548218390804596</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -12383,9 +12283,8 @@
       <c r="E354" s="30">
         <v>22.087499999999999</v>
       </c>
-      <c r="F354" s="32">
-        <f t="shared" si="1"/>
-        <v>28.115416666666668</v>
+      <c r="F354" s="30">
+        <v>26.592829861111113</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -12404,9 +12303,8 @@
       <c r="E355" s="30">
         <v>21.255517241379309</v>
       </c>
-      <c r="F355" s="32">
-        <f t="shared" si="1"/>
-        <v>27.17159195402299</v>
+      <c r="F355" s="30">
+        <v>25.634208333333337</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -12425,9 +12323,8 @@
       <c r="E356" s="30">
         <v>19.295666666666669</v>
       </c>
-      <c r="F356" s="32">
-        <f t="shared" si="1"/>
-        <v>24.509333333333331</v>
+      <c r="F356" s="30">
+        <v>23.025680555555549</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -12446,9 +12343,8 @@
       <c r="E357" s="30">
         <v>18.335999999999999</v>
       </c>
-      <c r="F357" s="32">
-        <f t="shared" si="1"/>
-        <v>22.318666666666665</v>
+      <c r="F357" s="30">
+        <v>21.049257936507935</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -12467,9 +12363,8 @@
       <c r="E358" s="30">
         <v>17.143548387096775</v>
       </c>
-      <c r="F358" s="32">
-        <f t="shared" si="1"/>
-        <v>21.355322580645165</v>
+      <c r="F358" s="30">
+        <v>20.107865591397847</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -12488,9 +12383,8 @@
       <c r="E359" s="30">
         <v>17.455161290322579</v>
       </c>
-      <c r="F359" s="32">
-        <f t="shared" si="1"/>
-        <v>22.534354838709675</v>
+      <c r="F359" s="30">
+        <v>20.779973118279571</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -12509,9 +12403,8 @@
       <c r="E360" s="30">
         <v>17.182666666666666</v>
       </c>
-      <c r="F360" s="32">
-        <f t="shared" si="1"/>
-        <v>22.915500000000002</v>
+      <c r="F360" s="30">
+        <v>20.839050505050512</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
@@ -12530,9 +12423,8 @@
       <c r="E361" s="30">
         <v>17.451290322580643</v>
       </c>
-      <c r="F361" s="32">
-        <f t="shared" si="1"/>
-        <v>23.502741935483868</v>
+      <c r="F361" s="30">
+        <v>22.076317204301077</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -12551,9 +12443,8 @@
       <c r="E362" s="30">
         <v>16.613</v>
       </c>
-      <c r="F362" s="32">
-        <f t="shared" si="1"/>
-        <v>23.131499999999999</v>
+      <c r="F362" s="30">
+        <v>21.324458333333332</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
@@ -12572,9 +12463,8 @@
       <c r="E363" s="30">
         <v>19.873199999999997</v>
       </c>
-      <c r="F363" s="32">
-        <f t="shared" si="1"/>
-        <v>25.332113043478259</v>
+      <c r="F363" s="30">
+        <v>23.675733333333334</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -12591,7 +12481,7 @@
         <v>34.200000000000003</v>
       </c>
       <c r="F364" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F311:F374" si="0">IF(AND(D364&gt;0,E364&gt;0),AVERAGE(D364:E364),"")</f>
         <v/>
       </c>
     </row>
@@ -12609,7 +12499,7 @@
         <v>34.9</v>
       </c>
       <c r="F365" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12627,7 +12517,7 @@
         <v>34.5</v>
       </c>
       <c r="F366" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12645,7 +12535,7 @@
         <v>33</v>
       </c>
       <c r="F367" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12663,7 +12553,7 @@
         <v>30.5</v>
       </c>
       <c r="F368" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12681,7 +12571,7 @@
         <v>28.6</v>
       </c>
       <c r="F369" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12699,7 +12589,7 @@
         <v>27.2</v>
       </c>
       <c r="F370" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12717,7 +12607,7 @@
         <v>27.5</v>
       </c>
       <c r="F371" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12735,7 +12625,7 @@
         <v>28.4</v>
       </c>
       <c r="F372" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12753,7 +12643,7 @@
         <v>28.4</v>
       </c>
       <c r="F373" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12771,7 +12661,7 @@
         <v>29.9</v>
       </c>
       <c r="F374" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12789,7 +12679,7 @@
         <v>31.8</v>
       </c>
       <c r="F375" s="32" t="str">
-        <f t="shared" ref="F375:F438" si="2">IF(AND(D375&gt;0,E375&gt;0),AVERAGE(D375:E375),"")</f>
+        <f t="shared" ref="F375:F438" si="1">IF(AND(D375&gt;0,E375&gt;0),AVERAGE(D375:E375),"")</f>
         <v/>
       </c>
     </row>
@@ -12807,7 +12697,7 @@
         <v>34.016129032258064</v>
       </c>
       <c r="F376" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -12825,7 +12715,7 @@
         <v>35.339285714285715</v>
       </c>
       <c r="F377" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -12843,7 +12733,7 @@
         <v>35.200000000000003</v>
       </c>
       <c r="F378" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -12861,7 +12751,7 @@
         <v>33.6</v>
       </c>
       <c r="F379" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -12879,7 +12769,7 @@
         <v>32.532258064516128</v>
       </c>
       <c r="F380" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -12897,7 +12787,7 @@
         <v>29.066666666666666</v>
       </c>
       <c r="F381" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -12915,7 +12805,7 @@
         <v>27.774193548387096</v>
       </c>
       <c r="F382" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -12933,7 +12823,7 @@
         <v>27.612903225806452</v>
       </c>
       <c r="F383" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -12951,7 +12841,7 @@
         <v>28.966666666666665</v>
       </c>
       <c r="F384" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -12969,7 +12859,7 @@
         <v>29.43548387096774</v>
       </c>
       <c r="F385" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -12987,7 +12877,7 @@
         <v>30.65</v>
       </c>
       <c r="F386" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13005,7 +12895,7 @@
         <v>32.806451612903224</v>
       </c>
       <c r="F387" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13023,7 +12913,7 @@
         <v>34.096774193548384</v>
       </c>
       <c r="F388" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13041,7 +12931,7 @@
         <v>35.125</v>
       </c>
       <c r="F389" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13059,7 +12949,7 @@
         <v>35.1</v>
       </c>
       <c r="F390" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13077,7 +12967,7 @@
         <v>33.883333333333333</v>
       </c>
       <c r="F391" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13095,7 +12985,7 @@
         <v>31.43548387096774</v>
       </c>
       <c r="F392" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13113,7 +13003,7 @@
         <v>29.583333333333332</v>
       </c>
       <c r="F393" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13131,7 +13021,7 @@
         <v>28.870967741935484</v>
       </c>
       <c r="F394" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13149,7 +13039,7 @@
         <v>28.161290322580644</v>
       </c>
       <c r="F395" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13167,7 +13057,7 @@
         <v>28.2</v>
       </c>
       <c r="F396" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13185,7 +13075,7 @@
         <v>30.225806451612904</v>
       </c>
       <c r="F397" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13203,7 +13093,7 @@
         <v>30.116666666666667</v>
       </c>
       <c r="F398" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13221,7 +13111,7 @@
         <v>32.193548387096776</v>
       </c>
       <c r="F399" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13239,7 +13129,7 @@
         <v>34.435483870967744</v>
       </c>
       <c r="F400" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13257,7 +13147,7 @@
         <v>35.96551724137931</v>
       </c>
       <c r="F401" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13275,7 +13165,7 @@
         <v>36.799999999999997</v>
       </c>
       <c r="F402" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13293,7 +13183,7 @@
         <v>33.983333333333334</v>
       </c>
       <c r="F403" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13311,7 +13201,7 @@
         <v>30.387096774193548</v>
       </c>
       <c r="F404" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13329,7 +13219,7 @@
         <v>28.35</v>
       </c>
       <c r="F405" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13347,7 +13237,7 @@
         <v>27.951612903225808</v>
       </c>
       <c r="F406" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13365,7 +13255,7 @@
         <v>28.35483870967742</v>
       </c>
       <c r="F407" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13383,7 +13273,7 @@
         <v>29.75</v>
       </c>
       <c r="F408" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13401,7 +13291,7 @@
         <v>30.516129032258064</v>
       </c>
       <c r="F409" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13419,7 +13309,7 @@
         <v>30.933333333333334</v>
       </c>
       <c r="F410" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13437,7 +13327,7 @@
         <v>32.903225806451616</v>
       </c>
       <c r="F411" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13455,7 +13345,7 @@
         <v>34.838709677419352</v>
       </c>
       <c r="F412" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13473,7 +13363,7 @@
         <v>35.5</v>
       </c>
       <c r="F413" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13491,7 +13381,7 @@
         <v>34.4</v>
       </c>
       <c r="F414" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13509,7 +13399,7 @@
         <v>34.366666666666667</v>
       </c>
       <c r="F415" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13527,7 +13417,7 @@
         <v>30.161290322580644</v>
       </c>
       <c r="F416" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13545,7 +13435,7 @@
         <v>28.793103448275861</v>
       </c>
       <c r="F417" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13563,7 +13453,7 @@
         <v>28.419354838709676</v>
       </c>
       <c r="F418" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13581,7 +13471,7 @@
         <v>28.032258064516128</v>
       </c>
       <c r="F419" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13599,7 +13489,7 @@
         <v>28.033333333333335</v>
       </c>
       <c r="F420" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13617,7 +13507,7 @@
         <v>28.806451612903224</v>
       </c>
       <c r="F421" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13635,7 +13525,7 @@
         <v>29.366666666666667</v>
       </c>
       <c r="F422" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13653,7 +13543,7 @@
         <v>31.79032258064516</v>
       </c>
       <c r="F423" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13671,7 +13561,7 @@
         <v>34.883870967741942</v>
       </c>
       <c r="F424" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13689,7 +13579,7 @@
         <v>35.660714285714285</v>
       </c>
       <c r="F425" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13707,7 +13597,7 @@
         <v>35.200000000000003</v>
       </c>
       <c r="F426" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13725,7 +13615,7 @@
         <v>33.833333333333336</v>
       </c>
       <c r="F427" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13743,7 +13633,7 @@
         <v>31.048387096774192</v>
       </c>
       <c r="F428" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13761,7 +13651,7 @@
         <v>28.483333333333334</v>
       </c>
       <c r="F429" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13779,7 +13669,7 @@
         <v>28.516129032258064</v>
       </c>
       <c r="F430" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13797,7 +13687,7 @@
         <v>28.758064516129032</v>
       </c>
       <c r="F431" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13815,7 +13705,7 @@
         <v>29.633333333333333</v>
       </c>
       <c r="F432" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13833,7 +13723,7 @@
         <v>30</v>
       </c>
       <c r="F433" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13851,7 +13741,7 @@
         <v>31.316666666666666</v>
       </c>
       <c r="F434" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13869,7 +13759,7 @@
         <v>32.935483870967744</v>
       </c>
       <c r="F435" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13887,7 +13777,7 @@
         <v>34.822580645161288</v>
       </c>
       <c r="F436" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13905,7 +13795,7 @@
         <v>36</v>
       </c>
       <c r="F437" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13923,7 +13813,7 @@
         <v>35.9</v>
       </c>
       <c r="F438" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13941,7 +13831,7 @@
         <v>34.43333333333333</v>
       </c>
       <c r="F439" s="32" t="str">
-        <f t="shared" ref="F439:F502" si="3">IF(AND(D439&gt;0,E439&gt;0),AVERAGE(D439:E439),"")</f>
+        <f t="shared" ref="F439:F502" si="2">IF(AND(D439&gt;0,E439&gt;0),AVERAGE(D439:E439),"")</f>
         <v/>
       </c>
     </row>
@@ -13959,7 +13849,7 @@
         <v>30.983870967741936</v>
       </c>
       <c r="F440" s="32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -13977,7 +13867,7 @@
         <v>28.983333333333334</v>
       </c>
       <c r="F441" s="32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -13995,7 +13885,7 @@
         <v>27.93548387096774</v>
       </c>
       <c r="F442" s="32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14012,9 +13902,8 @@
       <c r="D443" s="30">
         <v>28.7</v>
       </c>
-      <c r="F443" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F443" s="34">
+        <v>19.23</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
@@ -14030,9 +13919,8 @@
       <c r="D444" s="30">
         <v>29.7</v>
       </c>
-      <c r="F444" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F444" s="34">
+        <v>19.41</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
@@ -14048,9 +13936,8 @@
       <c r="D445" s="30">
         <v>29</v>
       </c>
-      <c r="F445" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F445" s="34">
+        <v>19.46</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
@@ -14066,9 +13953,8 @@
       <c r="D446" s="30">
         <v>31.6</v>
       </c>
-      <c r="F446" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F446" s="34">
+        <v>21.29</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -14084,9 +13970,8 @@
       <c r="D447" s="30">
         <v>33.299999999999997</v>
       </c>
-      <c r="F447" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F447" s="34">
+        <v>22.47</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
@@ -14102,9 +13987,8 @@
       <c r="D448" s="30">
         <v>34.299999999999997</v>
       </c>
-      <c r="F448" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F448" s="35">
+        <v>26.75376776076887</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -14120,9 +14004,8 @@
       <c r="D449" s="30">
         <v>35.299999999999997</v>
       </c>
-      <c r="F449" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F449" s="35">
+        <v>27.854663702495596</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
@@ -14138,9 +14021,8 @@
       <c r="D450" s="30">
         <v>34.4</v>
       </c>
-      <c r="F450" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F450" s="35">
+        <v>27.936686304335257</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
@@ -14156,9 +14038,8 @@
       <c r="D451" s="30">
         <v>33.466666666666669</v>
       </c>
-      <c r="F451" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F451" s="35">
+        <v>26.064069895669522</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
@@ -14174,9 +14055,8 @@
       <c r="D452" s="30">
         <v>30.241935483870968</v>
       </c>
-      <c r="F452" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F452" s="35">
+        <v>23.430143206835687</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
@@ -14192,9 +14072,8 @@
       <c r="D453" s="30">
         <v>28.285714285714285</v>
       </c>
-      <c r="F453" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F453" s="35">
+        <v>22.233434852777723</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
@@ -14210,9 +14089,8 @@
       <c r="D454" s="30">
         <v>30.1</v>
       </c>
-      <c r="F454" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F454" s="35">
+        <v>21.982389091058241</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -14228,9 +14106,8 @@
       <c r="D455" s="30">
         <v>31.8</v>
       </c>
-      <c r="F455" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F455" s="35">
+        <v>22.234649091053551</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
@@ -14246,9 +14123,8 @@
       <c r="D456" s="30">
         <v>31.8</v>
       </c>
-      <c r="F456" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F456" s="35">
+        <v>22.766581309642291</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
@@ -14264,9 +14140,8 @@
       <c r="D457" s="30">
         <v>30.3</v>
       </c>
-      <c r="F457" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F457" s="35">
+        <v>22.540835389733843</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -14282,9 +14157,8 @@
       <c r="D458" s="30">
         <v>31.7</v>
       </c>
-      <c r="F458" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F458" s="35">
+        <v>23.090742072209864</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
@@ -14300,9 +14174,8 @@
       <c r="D459" s="30">
         <v>32.700000000000003</v>
       </c>
-      <c r="F459" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F459" s="35">
+        <v>24.400997932077349</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
@@ -14318,9 +14191,8 @@
       <c r="D460" s="30">
         <v>35.299999999999997</v>
       </c>
-      <c r="F460" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F460" s="30">
+        <v>26.8</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
@@ -14336,9 +14208,8 @@
       <c r="D461" s="30">
         <v>35.6</v>
       </c>
-      <c r="F461" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F461" s="30">
+        <v>27.8</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
@@ -14354,9 +14225,8 @@
       <c r="D462" s="30">
         <v>35.5</v>
       </c>
-      <c r="F462" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F462" s="30">
+        <v>28.1</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
@@ -14372,9 +14242,8 @@
       <c r="D463" s="30">
         <v>34.65</v>
       </c>
-      <c r="F463" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F463" s="30">
+        <v>26.5</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
@@ -14390,9 +14259,8 @@
       <c r="D464" s="30">
         <v>32</v>
       </c>
-      <c r="F464" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F464" s="30">
+        <v>24.6</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
@@ -14408,9 +14276,8 @@
       <c r="D465" s="30">
         <v>29.834666666666667</v>
       </c>
-      <c r="F465" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F465" s="30">
+        <v>22.9</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -14426,9 +14293,8 @@
       <c r="D466" s="30">
         <v>29.1</v>
       </c>
-      <c r="F466" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F466" s="30">
+        <v>22.4</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
@@ -14444,9 +14310,8 @@
       <c r="D467" s="30">
         <v>28.7</v>
       </c>
-      <c r="F467" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F467" s="30">
+        <v>22.1</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
@@ -14462,9 +14327,8 @@
       <c r="D468" s="30">
         <v>29.3</v>
       </c>
-      <c r="F468" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F468" s="30">
+        <v>22.3</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
@@ -14480,9 +14344,8 @@
       <c r="D469" s="30">
         <v>30.2</v>
       </c>
-      <c r="F469" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F469" s="30">
+        <v>23.1</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
@@ -14498,9 +14361,8 @@
       <c r="D470" s="30">
         <v>30.4</v>
       </c>
-      <c r="F470" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F470" s="30">
+        <v>23.6</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
@@ -14516,9 +14378,8 @@
       <c r="D471" s="30">
         <v>32.1</v>
       </c>
-      <c r="F471" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F471" s="30">
+        <v>25.3</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
@@ -14535,9 +14396,8 @@
         <v>34</v>
       </c>
       <c r="E472" s="30"/>
-      <c r="F472" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F472" s="30">
+        <v>27.8</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
@@ -14554,9 +14414,8 @@
         <v>34.9</v>
       </c>
       <c r="E473" s="30"/>
-      <c r="F473" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F473" s="30">
+        <v>26.9</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
@@ -14573,9 +14432,8 @@
         <v>34.9</v>
       </c>
       <c r="E474" s="30"/>
-      <c r="F474" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F474" s="30">
+        <v>26.8</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
@@ -14592,9 +14450,8 @@
         <v>35.4</v>
       </c>
       <c r="E475" s="30"/>
-      <c r="F475" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F475" s="30">
+        <v>25.5</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
@@ -14611,9 +14468,8 @@
         <v>33</v>
       </c>
       <c r="E476" s="30"/>
-      <c r="F476" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F476" s="30">
+        <v>23.2</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
@@ -14630,9 +14486,8 @@
         <v>29.6</v>
       </c>
       <c r="E477" s="30"/>
-      <c r="F477" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F477" s="30">
+        <v>21.5</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
@@ -14649,9 +14504,8 @@
         <v>29.6</v>
       </c>
       <c r="E478" s="30"/>
-      <c r="F478" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F478" s="30">
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
@@ -14670,9 +14524,8 @@
       <c r="E479" s="30">
         <v>13.8</v>
       </c>
-      <c r="F479" s="32">
-        <f>IF(AND(D479&gt;0,E479&gt;0),AVERAGE(D479:E479),"")</f>
-        <v>21.5</v>
+      <c r="F479" s="30">
+        <v>19.5</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
@@ -14691,9 +14544,8 @@
       <c r="E480" s="30">
         <v>14.4</v>
       </c>
-      <c r="F480" s="32">
-        <f t="shared" si="3"/>
-        <v>22.25</v>
+      <c r="F480" s="30">
+        <v>19.2</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
@@ -14712,9 +14564,8 @@
       <c r="E481" s="30">
         <v>14.2</v>
       </c>
-      <c r="F481" s="32">
-        <f t="shared" si="3"/>
-        <v>21.75</v>
+      <c r="F481" s="30">
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
@@ -14733,9 +14584,8 @@
       <c r="E482" s="30">
         <v>13.7</v>
       </c>
-      <c r="F482" s="32">
-        <f t="shared" si="3"/>
-        <v>22.25</v>
+      <c r="F482" s="30">
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
@@ -14754,9 +14604,8 @@
       <c r="E483" s="30">
         <v>15.8</v>
       </c>
-      <c r="F483" s="32">
-        <f t="shared" si="3"/>
-        <v>24.049999999999997</v>
+      <c r="F483" s="30">
+        <v>22.8</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
@@ -14775,9 +14624,8 @@
       <c r="E484" s="30">
         <v>17.399999999999999</v>
       </c>
-      <c r="F484" s="32">
-        <f t="shared" si="3"/>
-        <v>25.849999999999998</v>
+      <c r="F484" s="30">
+        <v>24.930241935483874</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
@@ -14796,9 +14644,8 @@
       <c r="E485" s="30">
         <v>18</v>
       </c>
-      <c r="F485" s="32">
-        <f t="shared" si="3"/>
-        <v>26.55</v>
+      <c r="F485" s="30">
+        <v>26.28169642857144</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
@@ -14817,9 +14664,8 @@
       <c r="E486" s="30">
         <v>18.5</v>
       </c>
-      <c r="F486" s="32">
-        <f t="shared" si="3"/>
-        <v>27.05</v>
+      <c r="F486" s="30">
+        <v>25.896370967741934</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
@@ -14838,9 +14684,8 @@
       <c r="E487" s="30">
         <v>19.2</v>
       </c>
-      <c r="F487" s="32">
-        <f t="shared" si="3"/>
-        <v>26.950000000000003</v>
+      <c r="F487" s="30">
+        <v>25.149513888888887</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
@@ -14859,9 +14704,8 @@
       <c r="E488" s="30">
         <v>17</v>
       </c>
-      <c r="F488" s="32">
-        <f t="shared" si="3"/>
-        <v>24.45</v>
+      <c r="F488" s="30">
+        <v>23.5</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
@@ -14880,9 +14724,8 @@
       <c r="E489" s="30">
         <v>16.899999999999999</v>
       </c>
-      <c r="F489" s="32">
-        <f t="shared" si="3"/>
-        <v>24.55</v>
+      <c r="F489" s="30">
+        <v>22.6</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
@@ -14901,9 +14744,8 @@
       <c r="E490" s="30">
         <v>16.100000000000001</v>
       </c>
-      <c r="F490" s="32">
-        <f t="shared" si="3"/>
-        <v>22.65</v>
+      <c r="F490" s="30">
+        <v>20.7</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
@@ -14922,9 +14764,8 @@
       <c r="E491" s="30">
         <v>15.5</v>
       </c>
-      <c r="F491" s="32">
-        <f t="shared" si="3"/>
-        <v>22.1</v>
+      <c r="F491" s="30">
+        <v>20.2</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
@@ -14943,9 +14784,8 @@
       <c r="E492" s="30">
         <v>15.3</v>
       </c>
-      <c r="F492" s="32">
-        <f t="shared" si="3"/>
-        <v>22.55</v>
+      <c r="F492" s="30">
+        <v>20.2</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
@@ -14964,9 +14804,8 @@
       <c r="E493" s="30">
         <v>10.8</v>
       </c>
-      <c r="F493" s="32">
-        <f t="shared" si="3"/>
-        <v>20.55</v>
+      <c r="F493" s="30">
+        <v>20.3</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
@@ -14985,9 +14824,8 @@
       <c r="E494" s="30">
         <v>14.8</v>
       </c>
-      <c r="F494" s="32">
-        <f t="shared" si="3"/>
-        <v>23.35</v>
+      <c r="F494" s="30">
+        <v>22</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
@@ -15006,9 +14844,8 @@
       <c r="E495" s="30">
         <v>17.7</v>
       </c>
-      <c r="F495" s="32">
-        <f t="shared" si="3"/>
-        <v>25.200000000000003</v>
+      <c r="F495" s="30">
+        <v>23.8</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
@@ -15027,9 +14864,8 @@
       <c r="E496" s="30">
         <v>20.6</v>
       </c>
-      <c r="F496" s="32">
-        <f t="shared" si="3"/>
-        <v>27.5</v>
+      <c r="F496" s="30">
+        <v>25.9</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
@@ -15048,9 +14884,8 @@
       <c r="E497" s="30">
         <v>21.2</v>
       </c>
-      <c r="F497" s="32">
-        <f t="shared" si="3"/>
-        <v>27.950000000000003</v>
+      <c r="F497" s="30">
+        <v>26.5</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
@@ -15069,9 +14904,8 @@
       <c r="E498" s="30">
         <v>20.7</v>
       </c>
-      <c r="F498" s="32">
-        <f t="shared" si="3"/>
-        <v>28</v>
+      <c r="F498" s="30">
+        <v>27.1</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
@@ -15090,9 +14924,8 @@
       <c r="E499" s="30">
         <v>20.6</v>
       </c>
-      <c r="F499" s="32">
-        <f t="shared" si="3"/>
-        <v>28</v>
+      <c r="F499" s="30">
+        <v>26.39</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
@@ -15111,9 +14944,8 @@
       <c r="E500" s="30">
         <v>18.600000000000001</v>
       </c>
-      <c r="F500" s="32">
-        <f t="shared" si="3"/>
-        <v>26.1</v>
+      <c r="F500" s="30">
+        <v>24.6</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
@@ -15132,9 +14964,8 @@
       <c r="E501" s="30">
         <v>18.399999999999999</v>
       </c>
-      <c r="F501" s="32">
-        <f t="shared" si="3"/>
-        <v>25.2</v>
+      <c r="F501" s="30">
+        <v>23.7</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
@@ -15153,9 +14984,8 @@
       <c r="E502" s="30">
         <v>14.4</v>
       </c>
-      <c r="F502" s="32">
-        <f t="shared" si="3"/>
-        <v>22.05</v>
+      <c r="F502" s="30">
+        <v>21.7</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
@@ -15174,9 +15004,8 @@
       <c r="E503" s="30">
         <v>15.1</v>
       </c>
-      <c r="F503" s="32">
-        <f t="shared" ref="F503:F507" si="4">IF(AND(D503&gt;0,E503&gt;0),AVERAGE(D503:E503),"")</f>
-        <v>22.2</v>
+      <c r="F503" s="30">
+        <v>21.5</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
@@ -15195,9 +15024,8 @@
       <c r="E504" s="30">
         <v>17.100000000000001</v>
       </c>
-      <c r="F504" s="32">
-        <f t="shared" si="4"/>
-        <v>24.4</v>
+      <c r="F504" s="30">
+        <v>21.8</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
@@ -15216,9 +15044,8 @@
       <c r="E505" s="30">
         <v>16.2</v>
       </c>
-      <c r="F505" s="32">
-        <f t="shared" si="4"/>
-        <v>23.65</v>
+      <c r="F505" s="30">
+        <v>21.7</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
@@ -15237,9 +15064,8 @@
       <c r="E506" s="30">
         <v>18.5</v>
       </c>
-      <c r="F506" s="32">
-        <f t="shared" si="4"/>
-        <v>25.1</v>
+      <c r="F506" s="30">
+        <v>22.8</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
@@ -15258,9 +15084,8 @@
       <c r="E507" s="30">
         <v>16.3</v>
       </c>
-      <c r="F507" s="32">
-        <f t="shared" si="4"/>
-        <v>24.950000000000003</v>
+      <c r="F507" s="30">
+        <v>23.8</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
@@ -15276,9 +15101,8 @@
       <c r="E508" s="30">
         <v>20.5</v>
       </c>
-      <c r="F508" s="32" t="str">
-        <f>IF(AND(D508&gt;0,E508&gt;0),AVERAGE(D508:E508),"")</f>
-        <v/>
+      <c r="F508" s="30">
+        <v>26.2</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
@@ -15294,9 +15118,8 @@
       <c r="E509" s="30">
         <v>21.2</v>
       </c>
-      <c r="F509" s="32" t="str">
-        <f>IF(AND(D509&gt;0,E509&gt;0),AVERAGE(D509:E509),"")</f>
-        <v/>
+      <c r="F509" s="30">
+        <v>27.4</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
@@ -15312,9 +15135,8 @@
       <c r="E510" s="30">
         <v>19.7</v>
       </c>
-      <c r="F510" s="32" t="str">
-        <f>IF(AND(D510&gt;0,E510&gt;0),AVERAGE(D510:E510),"")</f>
-        <v/>
+      <c r="F510" s="30">
+        <v>26.6</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
@@ -15330,9 +15152,8 @@
       <c r="E511" s="30">
         <v>17.8</v>
       </c>
-      <c r="F511" s="32" t="str">
-        <f t="shared" ref="F511:F522" si="5">IF(AND(D511&gt;0,E511&gt;0),AVERAGE(D511:E511),"")</f>
-        <v/>
+      <c r="F511" s="30">
+        <v>24.1</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
@@ -15348,9 +15169,8 @@
       <c r="E512" s="30">
         <v>17.3</v>
       </c>
-      <c r="F512" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="F512" s="30">
+        <v>22.6</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
@@ -15366,9 +15186,8 @@
       <c r="E513" s="30">
         <v>16.100000000000001</v>
       </c>
-      <c r="F513" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="F513" s="30">
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
@@ -15384,9 +15203,8 @@
       <c r="E514" s="30">
         <v>13.9</v>
       </c>
-      <c r="F514" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="F514" s="30">
+        <v>19.7</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
@@ -15402,9 +15220,8 @@
       <c r="E515" s="30">
         <v>15.1</v>
       </c>
-      <c r="F515" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="F515" s="30">
+        <v>20</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
@@ -15420,9 +15237,8 @@
       <c r="E516" s="30">
         <v>15.5</v>
       </c>
-      <c r="F516" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="F516" s="30">
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
@@ -15438,9 +15254,8 @@
       <c r="E517" s="30">
         <v>16.100000000000001</v>
       </c>
-      <c r="F517" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="F517" s="30">
+        <v>20.6</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
@@ -15456,9 +15271,8 @@
       <c r="E518" s="30">
         <v>14.2</v>
       </c>
-      <c r="F518" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="F518" s="30">
+        <v>21.3</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
@@ -15474,9 +15288,8 @@
       <c r="E519" s="30">
         <v>17.899999999999999</v>
       </c>
-      <c r="F519" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="F519" s="30">
+        <v>24.2</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
@@ -15492,9 +15305,8 @@
       <c r="E520" s="30">
         <v>21.3</v>
       </c>
-      <c r="F520" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="F520" s="30">
+        <v>26.7</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
@@ -15510,9 +15322,8 @@
       <c r="E521" s="30">
         <v>20.8</v>
       </c>
-      <c r="F521" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="F521" s="30">
+        <v>26.8</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
@@ -15528,9 +15339,8 @@
       <c r="E522" s="30">
         <v>21.4</v>
       </c>
-      <c r="F522" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="F522" s="30">
+        <v>27.2</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
@@ -15549,9 +15359,8 @@
       <c r="E523" s="30">
         <v>19.5</v>
       </c>
-      <c r="F523" s="32">
-        <f>IF(AND(D523&gt;0,E523&gt;0),AVERAGE(D523:E523),"")</f>
-        <v>27.05</v>
+      <c r="F523" s="30">
+        <v>25.7</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
@@ -15570,9 +15379,8 @@
       <c r="E524" s="30">
         <v>21.2</v>
       </c>
-      <c r="F524" s="32">
-        <f>IF(AND(D524&gt;0,E524&gt;0),AVERAGE(D524:E524),"")</f>
-        <v>27.200000000000003</v>
+      <c r="F524" s="30">
+        <v>25.44</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
@@ -15591,9 +15399,8 @@
       <c r="E525" s="30">
         <v>19.100000000000001</v>
       </c>
-      <c r="F525" s="32">
-        <f>IF(AND(D525&gt;0,E525&gt;0),AVERAGE(D525:E525),"")</f>
-        <v>26.05</v>
+      <c r="F525" s="30">
+        <v>24.31</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
@@ -15612,9 +15419,8 @@
       <c r="E526" s="30">
         <v>15.8</v>
       </c>
-      <c r="F526" s="32">
-        <f t="shared" ref="F526:F589" si="6">IF(AND(D526&gt;0,E526&gt;0),AVERAGE(D526:E526),"")</f>
-        <v>23.4</v>
+      <c r="F526" s="30">
+        <v>21.76</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
@@ -15633,9 +15439,8 @@
       <c r="E527" s="30">
         <v>15.7</v>
       </c>
-      <c r="F527" s="32">
-        <f t="shared" si="6"/>
-        <v>23.799999999999997</v>
+      <c r="F527" s="30">
+        <v>21.26</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
@@ -15654,9 +15459,8 @@
       <c r="E528" s="30">
         <v>16.600000000000001</v>
       </c>
-      <c r="F528" s="32">
-        <f t="shared" si="6"/>
-        <v>24.400000000000002</v>
+      <c r="F528" s="30">
+        <v>21.44</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
@@ -15675,9 +15479,8 @@
       <c r="E529" s="30">
         <v>16.600000000000001</v>
       </c>
-      <c r="F529" s="32">
-        <f t="shared" si="6"/>
-        <v>24.5</v>
+      <c r="F529" s="30">
+        <v>21.95</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
@@ -15696,9 +15499,8 @@
       <c r="E530" s="30">
         <v>17.600000000000001</v>
       </c>
-      <c r="F530" s="32">
-        <f t="shared" si="6"/>
-        <v>24.900000000000002</v>
+      <c r="F530" s="30">
+        <v>22.72</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
@@ -15717,9 +15519,8 @@
       <c r="E531" s="30">
         <v>18.7</v>
       </c>
-      <c r="F531" s="32">
-        <f t="shared" si="6"/>
-        <v>26.049999999999997</v>
+      <c r="F531" s="30">
+        <v>24.15</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
@@ -15739,8 +15540,7 @@
         <v>20.2</v>
       </c>
       <c r="F532" s="32">
-        <f t="shared" si="6"/>
-        <v>27.700000000000003</v>
+        <v>25.967741935483875</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
@@ -15760,8 +15560,7 @@
         <v>22.4</v>
       </c>
       <c r="F533" s="32">
-        <f t="shared" si="6"/>
-        <v>29.3</v>
+        <v>27.732142857142861</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
@@ -15781,8 +15580,7 @@
         <v>22.2</v>
       </c>
       <c r="F534" s="32">
-        <f t="shared" si="6"/>
-        <v>29.25</v>
+        <v>27.861290322580643</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
@@ -15802,8 +15600,7 @@
         <v>21.2</v>
       </c>
       <c r="F535" s="32">
-        <f t="shared" si="6"/>
-        <v>28.200000000000003</v>
+        <v>26.913333333333334</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
@@ -15823,8 +15620,7 @@
         <v>19.3</v>
       </c>
       <c r="F536" s="32">
-        <f t="shared" si="6"/>
-        <v>26.6</v>
+        <v>25.864516129032257</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
@@ -15844,8 +15640,7 @@
         <v>19.2</v>
       </c>
       <c r="F537" s="32">
-        <f t="shared" si="6"/>
-        <v>26.1</v>
+        <v>24.549999999999994</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
@@ -15865,8 +15660,7 @@
         <v>18</v>
       </c>
       <c r="F538" s="32">
-        <f t="shared" si="6"/>
-        <v>24.85</v>
+        <v>23.225806451612904</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
@@ -15886,8 +15680,7 @@
         <v>17.8</v>
       </c>
       <c r="F539" s="32">
-        <f t="shared" si="6"/>
-        <v>24.25</v>
+        <v>22.264516129032256</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
@@ -15907,8 +15700,7 @@
         <v>17.7</v>
       </c>
       <c r="F540" s="32">
-        <f t="shared" si="6"/>
-        <v>25.9</v>
+        <v>23.386666666666667</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
@@ -15928,8 +15720,7 @@
         <v>19.3</v>
       </c>
       <c r="F541" s="32">
-        <f t="shared" si="6"/>
-        <v>25.700000000000003</v>
+        <v>23.451612903225808</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
@@ -15949,8 +15740,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="F542" s="32">
-        <f t="shared" si="6"/>
-        <v>25.65</v>
+        <v>23.863333333333333</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
@@ -15970,8 +15760,7 @@
         <v>20.2</v>
       </c>
       <c r="F543" s="32">
-        <f t="shared" si="6"/>
-        <v>27.450000000000003</v>
+        <v>25.79032258064516</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
@@ -15991,8 +15780,7 @@
         <v>22.7</v>
       </c>
       <c r="F544" s="32">
-        <f t="shared" si="6"/>
-        <v>29.049999999999997</v>
+        <v>27.151612903225804</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
@@ -16012,8 +15800,7 @@
         <v>22.8</v>
       </c>
       <c r="F545" s="32">
-        <f t="shared" si="6"/>
-        <v>29.950000000000003</v>
+        <v>28.282142857142855</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
@@ -16033,8 +15820,7 @@
         <v>22.6</v>
       </c>
       <c r="F546" s="32">
-        <f t="shared" si="6"/>
-        <v>29.75</v>
+        <v>28.261290322580642</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
@@ -16054,8 +15840,7 @@
         <v>20.6</v>
       </c>
       <c r="F547" s="32">
-        <f t="shared" si="6"/>
-        <v>27.8</v>
+        <v>26.723333333333336</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
@@ -16075,8 +15860,7 @@
         <v>18.8</v>
       </c>
       <c r="F548" s="32">
-        <f t="shared" si="6"/>
-        <v>26.700000000000003</v>
+        <v>24.64838709677419</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
@@ -16096,8 +15880,7 @@
         <v>17.7</v>
       </c>
       <c r="F549" s="32">
-        <f t="shared" si="6"/>
-        <v>24.9</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
@@ -16117,8 +15900,7 @@
         <v>16.8</v>
       </c>
       <c r="F550" s="32">
-        <f t="shared" si="6"/>
-        <v>24.15</v>
+        <v>22.361290322580658</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
@@ -16138,8 +15920,7 @@
         <v>15.7</v>
       </c>
       <c r="F551" s="32">
-        <f t="shared" si="6"/>
-        <v>23.5</v>
+        <v>21.996774193548383</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
@@ -16159,8 +15940,7 @@
         <v>16.7</v>
       </c>
       <c r="F552" s="32">
-        <f t="shared" si="6"/>
-        <v>24.1</v>
+        <v>22.233333333333338</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
@@ -16180,8 +15960,7 @@
         <v>15.1</v>
       </c>
       <c r="F553" s="32">
-        <f t="shared" si="6"/>
-        <v>23.25</v>
+        <v>22.296774193548387</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
@@ -16201,8 +15980,7 @@
         <v>14</v>
       </c>
       <c r="F554" s="32">
-        <f t="shared" si="6"/>
-        <v>23.2</v>
+        <v>22.84333333333333</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
@@ -16222,8 +16000,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="F555" s="32">
-        <f t="shared" si="6"/>
-        <v>30.900000000000002</v>
+        <v>24.78709677419354</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
@@ -16243,8 +16020,7 @@
         <v>21.1</v>
       </c>
       <c r="F556" s="32">
-        <f t="shared" si="6"/>
-        <v>28.45</v>
+        <v>27.116129032258073</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
@@ -16264,8 +16040,7 @@
         <v>22.5</v>
       </c>
       <c r="F557" s="32">
-        <f t="shared" si="6"/>
-        <v>29.35</v>
+        <v>27.689285714285717</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
@@ -16285,8 +16060,7 @@
         <v>22.6</v>
       </c>
       <c r="F558" s="32">
-        <f t="shared" si="6"/>
-        <v>28.95</v>
+        <v>27.016129032258061</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
@@ -16306,8 +16080,7 @@
         <v>21.3</v>
       </c>
       <c r="F559" s="32">
-        <f t="shared" si="6"/>
-        <v>27.450000000000003</v>
+        <v>26.359999999999996</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
@@ -16327,8 +16100,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="F560" s="32">
-        <f t="shared" si="6"/>
-        <v>26.349999999999998</v>
+        <v>24.535483870967745</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
@@ -16348,8 +16120,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="F561" s="32">
-        <f t="shared" si="6"/>
-        <v>24.1</v>
+        <v>22.313333333333336</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
@@ -16369,8 +16140,7 @@
         <v>17.3</v>
       </c>
       <c r="F562" s="32">
-        <f t="shared" si="6"/>
-        <v>23.1</v>
+        <v>20.890322580645158</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
@@ -16390,8 +16160,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="F563" s="32">
-        <f t="shared" si="6"/>
-        <v>22.450000000000003</v>
+        <v>20.551612903225802</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
@@ -16411,8 +16180,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="F564" s="32">
-        <f t="shared" si="6"/>
-        <v>23.200000000000003</v>
+        <v>20.696666666666669</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
@@ -16432,8 +16200,7 @@
         <v>15.9</v>
       </c>
       <c r="F565" s="32">
-        <f t="shared" si="6"/>
-        <v>23.5</v>
+        <v>21.070967741935483</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
@@ -16453,8 +16220,7 @@
         <v>15.2</v>
       </c>
       <c r="F566" s="32">
-        <f t="shared" si="6"/>
-        <v>23</v>
+        <v>21.23</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
@@ -16474,8 +16240,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="F567" s="32">
-        <f t="shared" si="6"/>
-        <v>25.5</v>
+        <v>23.974193548387099</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
@@ -16495,8 +16260,7 @@
         <v>19.3</v>
       </c>
       <c r="F568" s="32">
-        <f t="shared" si="6"/>
-        <v>27</v>
+        <v>25.870967741935488</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
@@ -16516,8 +16280,7 @@
         <v>21.2</v>
       </c>
       <c r="F569" s="32">
-        <f t="shared" si="6"/>
-        <v>28.200000000000003</v>
+        <v>27.253571428571426</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
@@ -16537,8 +16300,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="F570" s="32">
-        <f t="shared" si="6"/>
-        <v>27.6</v>
+        <v>26.532258064516135</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
@@ -16558,8 +16320,7 @@
         <v>19.3</v>
       </c>
       <c r="F571" s="32">
-        <f t="shared" si="6"/>
-        <v>27.200000000000003</v>
+        <v>25.72333333333334</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
@@ -16579,8 +16340,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="F572" s="32">
-        <f t="shared" si="6"/>
-        <v>25.1</v>
+        <v>22.958064516129038</v>
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
@@ -16600,8 +16360,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="F573" s="32">
-        <f t="shared" si="6"/>
-        <v>22.9</v>
+        <v>20.97333333333334</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
@@ -16621,8 +16380,7 @@
         <v>16.5</v>
       </c>
       <c r="F574" s="32">
-        <f t="shared" si="6"/>
-        <v>22.85</v>
+        <v>20.603225806451615</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
@@ -16642,8 +16400,7 @@
         <v>16.7</v>
       </c>
       <c r="F575" s="32">
-        <f t="shared" si="6"/>
-        <v>23.299999999999997</v>
+        <v>21.016129032258064</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
@@ -16663,8 +16420,7 @@
         <v>16.3</v>
       </c>
       <c r="F576" s="32">
-        <f t="shared" si="6"/>
-        <v>23.4</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
@@ -16684,8 +16440,7 @@
         <v>16.5</v>
       </c>
       <c r="F577" s="32">
-        <f t="shared" si="6"/>
-        <v>23.9</v>
+        <v>21.606451612903228</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
@@ -16705,8 +16460,7 @@
         <v>18.100000000000001</v>
       </c>
       <c r="F578" s="32">
-        <f t="shared" si="6"/>
-        <v>24.950000000000003</v>
+        <v>23.036666666666672</v>
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
@@ -16726,8 +16480,7 @@
         <v>16.8</v>
       </c>
       <c r="F579" s="32">
-        <f t="shared" si="6"/>
-        <v>25.25</v>
+        <v>24.887096774193544</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
@@ -16747,8 +16500,7 @@
         <v>21.3</v>
       </c>
       <c r="F580" s="32">
-        <f t="shared" si="6"/>
-        <v>28.700000000000003</v>
+        <v>27.238709677419358</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
@@ -16768,8 +16520,7 @@
         <v>22.1</v>
       </c>
       <c r="F581" s="32">
-        <f t="shared" si="6"/>
-        <v>29.150000000000002</v>
+        <v>27.674999999999994</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
@@ -16789,8 +16540,7 @@
         <v>21.2</v>
       </c>
       <c r="F582" s="32">
-        <f t="shared" si="6"/>
-        <v>28.950000000000003</v>
+        <v>27.770967741935486</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
@@ -16810,8 +16560,7 @@
         <v>20.6</v>
       </c>
       <c r="F583" s="32">
-        <f t="shared" si="6"/>
-        <v>27.95</v>
+        <v>26.303333333333338</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
@@ -16831,8 +16580,7 @@
         <v>19.3</v>
       </c>
       <c r="F584" s="32">
-        <f t="shared" si="6"/>
-        <v>26.25</v>
+        <v>24.687096774193545</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
@@ -16852,8 +16600,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="F585" s="32">
-        <f t="shared" si="6"/>
-        <v>24.299999999999997</v>
+        <v>22.503333333333334</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
@@ -16873,8 +16620,7 @@
         <v>12.6</v>
       </c>
       <c r="F586" s="32">
-        <f t="shared" si="6"/>
-        <v>21.1</v>
+        <v>20.700000000000003</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
@@ -16894,8 +16640,7 @@
         <v>15.2</v>
       </c>
       <c r="F587" s="32">
-        <f t="shared" si="6"/>
-        <v>22.799999999999997</v>
+        <v>20.125806451612899</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
@@ -16915,8 +16660,7 @@
         <v>15.8</v>
       </c>
       <c r="F588" s="32">
-        <f t="shared" si="6"/>
-        <v>23.200000000000003</v>
+        <v>20.666666666666671</v>
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
@@ -16936,8 +16680,7 @@
         <v>15.8</v>
       </c>
       <c r="F589" s="32">
-        <f t="shared" si="6"/>
-        <v>24</v>
+        <v>21.174193548387095</v>
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
@@ -16957,8 +16700,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="F590" s="32">
-        <f t="shared" ref="F590:F603" si="7">IF(AND(D590&gt;0,E590&gt;0),AVERAGE(D590:E590),"")</f>
-        <v>24.85</v>
+        <v>22.569999999999993</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.25">
@@ -16978,8 +16720,7 @@
         <v>19.600000000000001</v>
       </c>
       <c r="F591" s="32">
-        <f t="shared" si="7"/>
-        <v>26.5</v>
+        <v>24.964516129032265</v>
       </c>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
@@ -16996,8 +16737,7 @@
         <v>21.3</v>
       </c>
       <c r="F592" s="32">
-        <f t="shared" si="7"/>
-        <v>28.65</v>
+        <v>26.861290322580647</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.25">
@@ -17014,8 +16754,7 @@
         <v>21.7</v>
       </c>
       <c r="F593" s="32">
-        <f t="shared" si="7"/>
-        <v>29</v>
+        <v>27.842857142857145</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
@@ -17032,8 +16771,7 @@
         <v>22.6</v>
       </c>
       <c r="F594" s="32">
-        <f t="shared" si="7"/>
-        <v>29.8</v>
+        <v>28.36774193548387</v>
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
@@ -17050,8 +16788,7 @@
         <v>20.6</v>
       </c>
       <c r="F595" s="32">
-        <f t="shared" si="7"/>
-        <v>28.7</v>
+        <v>26.796666666666663</v>
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
@@ -17068,8 +16805,7 @@
         <v>18.3</v>
       </c>
       <c r="F596" s="32">
-        <f t="shared" si="7"/>
-        <v>25.85</v>
+        <v>24.606451612903225</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
@@ -17086,8 +16822,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="F597" s="32">
-        <f t="shared" si="7"/>
-        <v>23.200000000000003</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
@@ -17103,7 +16838,9 @@
       <c r="E598" t="s">
         <v>45</v>
       </c>
-      <c r="F598" s="32"/>
+      <c r="F598" s="32">
+        <v>19.8</v>
+      </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="23">
@@ -17119,8 +16856,7 @@
         <v>14.6</v>
       </c>
       <c r="F599" s="32">
-        <f>IF(AND(D599&gt;0,E599&gt;0),AVERAGE(D599:E599),"")</f>
-        <v>22.3</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
@@ -17137,8 +16873,7 @@
         <v>14.9</v>
       </c>
       <c r="F600" s="32">
-        <f t="shared" si="7"/>
-        <v>23.1</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
@@ -17155,8 +16890,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="F601" s="32">
-        <f t="shared" si="7"/>
-        <v>24.7</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
@@ -17166,10 +16900,7 @@
       <c r="B602" s="23">
         <v>11</v>
       </c>
-      <c r="F602" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="F602" s="32"/>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="23">
@@ -17178,10 +16909,7 @@
       <c r="B603" s="23">
         <v>12</v>
       </c>
-      <c r="F603" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="F603" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
